--- a/Assets/Excel/001_String.xlsx
+++ b/Assets/Excel/001_String.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="MesDataInUnity" sheetId="3" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="66">
   <si>
     <t>int</t>
   </si>
@@ -208,6 +208,38 @@
   </si>
   <si>
     <t>丟進Unity的試算表中欄位不能為空的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女主1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女主2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元氣JK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元氣JD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手槍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>機槍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重槍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -729,13 +761,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
@@ -773,26 +815,33 @@
       <c r="B2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="8" t="str">
+        <f>LEFT(A2,3)</f>
         <v>100</v>
       </c>
       <c r="D2" s="9">
+        <f>RIGHT(A2,1)*1</f>
         <v>1</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>27</v>
+      <c r="E2" s="8" t="str">
+        <f>VLOOKUP($A2,MesData!$A:$I,MATCH(MesDataInUnity!E$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>確定</v>
+      </c>
+      <c r="F2" s="8" t="str">
+        <f>VLOOKUP($A2,MesData!$A:$I,MATCH(MesDataInUnity!F$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>預留</v>
+      </c>
+      <c r="G2" s="8" t="str">
+        <f>VLOOKUP($A2,MesData!$A:$I,MATCH(MesDataInUnity!G$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>Confirm</v>
+      </c>
+      <c r="H2" s="8" t="str">
+        <f>VLOOKUP($A2,MesData!$A:$I,MATCH(MesDataInUnity!H$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>預留</v>
+      </c>
+      <c r="I2" s="8" t="str">
+        <f>VLOOKUP($A2,MesData!$A:$I,MATCH(MesDataInUnity!I$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>預留</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -806,22 +855,28 @@
         <v>100</v>
       </c>
       <c r="D3" s="9">
+        <f t="shared" ref="D3:D35" si="0">RIGHT(A3,1)*1</f>
         <v>2</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>27</v>
+      <c r="E3" s="8" t="str">
+        <f>VLOOKUP($A3,MesData!$A:$I,MATCH(MesDataInUnity!E$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>取消</v>
+      </c>
+      <c r="F3" s="8" t="str">
+        <f>VLOOKUP($A3,MesData!$A:$I,MATCH(MesDataInUnity!F$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>預留</v>
+      </c>
+      <c r="G3" s="8" t="str">
+        <f>VLOOKUP($A3,MesData!$A:$I,MATCH(MesDataInUnity!G$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>Cancel</v>
+      </c>
+      <c r="H3" s="8" t="str">
+        <f>VLOOKUP($A3,MesData!$A:$I,MATCH(MesDataInUnity!H$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>預留</v>
+      </c>
+      <c r="I3" s="8" t="str">
+        <f>VLOOKUP($A3,MesData!$A:$I,MATCH(MesDataInUnity!I$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>預留</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -835,22 +890,28 @@
         <v>100</v>
       </c>
       <c r="D4" s="9">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>55</v>
+      <c r="E4" s="8">
+        <f>VLOOKUP($A4,MesData!$A:$I,MATCH(MesDataInUnity!E$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="8">
+        <f>VLOOKUP($A4,MesData!$A:$I,MATCH(MesDataInUnity!F$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="8">
+        <f>VLOOKUP($A4,MesData!$A:$I,MATCH(MesDataInUnity!G$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="8">
+        <f>VLOOKUP($A4,MesData!$A:$I,MATCH(MesDataInUnity!H$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="8">
+        <f>VLOOKUP($A4,MesData!$A:$I,MATCH(MesDataInUnity!I$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -864,22 +925,28 @@
         <v>100</v>
       </c>
       <c r="D5" s="9">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>55</v>
+      <c r="E5" s="8">
+        <f>VLOOKUP($A5,MesData!$A:$I,MATCH(MesDataInUnity!E$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="8">
+        <f>VLOOKUP($A5,MesData!$A:$I,MATCH(MesDataInUnity!F$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="8">
+        <f>VLOOKUP($A5,MesData!$A:$I,MATCH(MesDataInUnity!G$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="8">
+        <f>VLOOKUP($A5,MesData!$A:$I,MATCH(MesDataInUnity!H$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="8">
+        <f>VLOOKUP($A5,MesData!$A:$I,MATCH(MesDataInUnity!I$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -893,22 +960,28 @@
         <v>100</v>
       </c>
       <c r="D6" s="9">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>55</v>
+      <c r="E6" s="8">
+        <f>VLOOKUP($A6,MesData!$A:$I,MATCH(MesDataInUnity!E$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="8">
+        <f>VLOOKUP($A6,MesData!$A:$I,MATCH(MesDataInUnity!F$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="8">
+        <f>VLOOKUP($A6,MesData!$A:$I,MATCH(MesDataInUnity!G$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="8">
+        <f>VLOOKUP($A6,MesData!$A:$I,MATCH(MesDataInUnity!H$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="8">
+        <f>VLOOKUP($A6,MesData!$A:$I,MATCH(MesDataInUnity!I$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -922,22 +995,28 @@
         <v>100</v>
       </c>
       <c r="D7" s="9">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>55</v>
+      <c r="E7" s="8">
+        <f>VLOOKUP($A7,MesData!$A:$I,MATCH(MesDataInUnity!E$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="8">
+        <f>VLOOKUP($A7,MesData!$A:$I,MATCH(MesDataInUnity!F$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="8">
+        <f>VLOOKUP($A7,MesData!$A:$I,MATCH(MesDataInUnity!G$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="8">
+        <f>VLOOKUP($A7,MesData!$A:$I,MATCH(MesDataInUnity!H$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="8">
+        <f>VLOOKUP($A7,MesData!$A:$I,MATCH(MesDataInUnity!I$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -951,22 +1030,28 @@
         <v>100</v>
       </c>
       <c r="D8" s="9">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>55</v>
+      <c r="E8" s="8">
+        <f>VLOOKUP($A8,MesData!$A:$I,MATCH(MesDataInUnity!E$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="8">
+        <f>VLOOKUP($A8,MesData!$A:$I,MATCH(MesDataInUnity!F$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="8">
+        <f>VLOOKUP($A8,MesData!$A:$I,MATCH(MesDataInUnity!G$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="8">
+        <f>VLOOKUP($A8,MesData!$A:$I,MATCH(MesDataInUnity!H$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="8">
+        <f>VLOOKUP($A8,MesData!$A:$I,MATCH(MesDataInUnity!I$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -980,22 +1065,28 @@
         <v>100</v>
       </c>
       <c r="D9" s="9">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>55</v>
+      <c r="E9" s="8">
+        <f>VLOOKUP($A9,MesData!$A:$I,MATCH(MesDataInUnity!E$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="8">
+        <f>VLOOKUP($A9,MesData!$A:$I,MATCH(MesDataInUnity!F$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="8">
+        <f>VLOOKUP($A9,MesData!$A:$I,MATCH(MesDataInUnity!G$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="8">
+        <f>VLOOKUP($A9,MesData!$A:$I,MATCH(MesDataInUnity!H$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="8">
+        <f>VLOOKUP($A9,MesData!$A:$I,MATCH(MesDataInUnity!I$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1009,22 +1100,28 @@
         <v>100</v>
       </c>
       <c r="D10" s="9">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E10" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>55</v>
+      <c r="E10" s="8">
+        <f>VLOOKUP($A10,MesData!$A:$I,MATCH(MesDataInUnity!E$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="8">
+        <f>VLOOKUP($A10,MesData!$A:$I,MATCH(MesDataInUnity!F$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="8">
+        <f>VLOOKUP($A10,MesData!$A:$I,MATCH(MesDataInUnity!G$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="8">
+        <f>VLOOKUP($A10,MesData!$A:$I,MATCH(MesDataInUnity!H$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="8">
+        <f>VLOOKUP($A10,MesData!$A:$I,MATCH(MesDataInUnity!I$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1038,22 +1135,28 @@
         <v>101</v>
       </c>
       <c r="D11" s="9">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E11" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>55</v>
+      <c r="E11" s="8" t="str">
+        <f>VLOOKUP($A11,MesData!$A:$I,MATCH(MesDataInUnity!E$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>女主1</v>
+      </c>
+      <c r="F11" s="8" t="str">
+        <f>VLOOKUP($A11,MesData!$A:$I,MATCH(MesDataInUnity!F$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>女主1</v>
+      </c>
+      <c r="G11" s="8" t="str">
+        <f>VLOOKUP($A11,MesData!$A:$I,MATCH(MesDataInUnity!G$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>女主1</v>
+      </c>
+      <c r="H11" s="8" t="str">
+        <f>VLOOKUP($A11,MesData!$A:$I,MATCH(MesDataInUnity!H$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>女主1</v>
+      </c>
+      <c r="I11" s="8" t="str">
+        <f>VLOOKUP($A11,MesData!$A:$I,MATCH(MesDataInUnity!I$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>女主1</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1067,22 +1170,28 @@
         <v>101</v>
       </c>
       <c r="D12" s="9">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E12" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>55</v>
+      <c r="E12" s="8" t="str">
+        <f>VLOOKUP($A12,MesData!$A:$I,MATCH(MesDataInUnity!E$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>女主2</v>
+      </c>
+      <c r="F12" s="8" t="str">
+        <f>VLOOKUP($A12,MesData!$A:$I,MATCH(MesDataInUnity!F$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>女主2</v>
+      </c>
+      <c r="G12" s="8" t="str">
+        <f>VLOOKUP($A12,MesData!$A:$I,MATCH(MesDataInUnity!G$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>女主2</v>
+      </c>
+      <c r="H12" s="8" t="str">
+        <f>VLOOKUP($A12,MesData!$A:$I,MATCH(MesDataInUnity!H$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>女主2</v>
+      </c>
+      <c r="I12" s="8" t="str">
+        <f>VLOOKUP($A12,MesData!$A:$I,MATCH(MesDataInUnity!I$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>女主2</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1096,22 +1205,28 @@
         <v>101</v>
       </c>
       <c r="D13" s="9">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E13" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>55</v>
+      <c r="E13" s="8">
+        <f>VLOOKUP($A13,MesData!$A:$I,MATCH(MesDataInUnity!E$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="8">
+        <f>VLOOKUP($A13,MesData!$A:$I,MATCH(MesDataInUnity!F$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="8">
+        <f>VLOOKUP($A13,MesData!$A:$I,MATCH(MesDataInUnity!G$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="8">
+        <f>VLOOKUP($A13,MesData!$A:$I,MATCH(MesDataInUnity!H$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="8">
+        <f>VLOOKUP($A13,MesData!$A:$I,MATCH(MesDataInUnity!I$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1125,22 +1240,28 @@
         <v>101</v>
       </c>
       <c r="D14" s="9">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E14" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>55</v>
+      <c r="E14" s="8">
+        <f>VLOOKUP($A14,MesData!$A:$I,MATCH(MesDataInUnity!E$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="8">
+        <f>VLOOKUP($A14,MesData!$A:$I,MATCH(MesDataInUnity!F$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="8">
+        <f>VLOOKUP($A14,MesData!$A:$I,MATCH(MesDataInUnity!G$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="8">
+        <f>VLOOKUP($A14,MesData!$A:$I,MATCH(MesDataInUnity!H$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="8">
+        <f>VLOOKUP($A14,MesData!$A:$I,MATCH(MesDataInUnity!I$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1154,22 +1275,28 @@
         <v>101</v>
       </c>
       <c r="D15" s="9">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E15" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>55</v>
+      <c r="E15" s="8">
+        <f>VLOOKUP($A15,MesData!$A:$I,MATCH(MesDataInUnity!E$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="8">
+        <f>VLOOKUP($A15,MesData!$A:$I,MATCH(MesDataInUnity!F$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="8">
+        <f>VLOOKUP($A15,MesData!$A:$I,MATCH(MesDataInUnity!G$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="8">
+        <f>VLOOKUP($A15,MesData!$A:$I,MATCH(MesDataInUnity!H$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="8">
+        <f>VLOOKUP($A15,MesData!$A:$I,MATCH(MesDataInUnity!I$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1183,22 +1310,28 @@
         <v>101</v>
       </c>
       <c r="D16" s="9">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E16" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>55</v>
+      <c r="E16" s="8">
+        <f>VLOOKUP($A16,MesData!$A:$I,MATCH(MesDataInUnity!E$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="8">
+        <f>VLOOKUP($A16,MesData!$A:$I,MATCH(MesDataInUnity!F$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="8">
+        <f>VLOOKUP($A16,MesData!$A:$I,MATCH(MesDataInUnity!G$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="8">
+        <f>VLOOKUP($A16,MesData!$A:$I,MATCH(MesDataInUnity!H$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="8">
+        <f>VLOOKUP($A16,MesData!$A:$I,MATCH(MesDataInUnity!I$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1212,22 +1345,28 @@
         <v>101</v>
       </c>
       <c r="D17" s="9">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E17" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>55</v>
+      <c r="E17" s="8">
+        <f>VLOOKUP($A17,MesData!$A:$I,MATCH(MesDataInUnity!E$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="8">
+        <f>VLOOKUP($A17,MesData!$A:$I,MATCH(MesDataInUnity!F$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="8">
+        <f>VLOOKUP($A17,MesData!$A:$I,MATCH(MesDataInUnity!G$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="8">
+        <f>VLOOKUP($A17,MesData!$A:$I,MATCH(MesDataInUnity!H$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="8">
+        <f>VLOOKUP($A17,MesData!$A:$I,MATCH(MesDataInUnity!I$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1241,22 +1380,28 @@
         <v>101</v>
       </c>
       <c r="D18" s="9">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E18" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>55</v>
+      <c r="E18" s="8">
+        <f>VLOOKUP($A18,MesData!$A:$I,MATCH(MesDataInUnity!E$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="8">
+        <f>VLOOKUP($A18,MesData!$A:$I,MATCH(MesDataInUnity!F$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="8">
+        <f>VLOOKUP($A18,MesData!$A:$I,MATCH(MesDataInUnity!G$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="8">
+        <f>VLOOKUP($A18,MesData!$A:$I,MATCH(MesDataInUnity!H$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="8">
+        <f>VLOOKUP($A18,MesData!$A:$I,MATCH(MesDataInUnity!I$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1270,22 +1415,28 @@
         <v>101</v>
       </c>
       <c r="D19" s="9">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E19" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>55</v>
+      <c r="E19" s="8">
+        <f>VLOOKUP($A19,MesData!$A:$I,MATCH(MesDataInUnity!E$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="8">
+        <f>VLOOKUP($A19,MesData!$A:$I,MATCH(MesDataInUnity!F$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="8">
+        <f>VLOOKUP($A19,MesData!$A:$I,MATCH(MesDataInUnity!G$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="8">
+        <f>VLOOKUP($A19,MesData!$A:$I,MATCH(MesDataInUnity!H$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="8">
+        <f>VLOOKUP($A19,MesData!$A:$I,MATCH(MesDataInUnity!I$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1299,22 +1450,28 @@
         <v>101</v>
       </c>
       <c r="D20" s="9">
-        <v>10</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>55</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E20" s="8">
+        <f>VLOOKUP($A20,MesData!$A:$I,MATCH(MesDataInUnity!E$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="8">
+        <f>VLOOKUP($A20,MesData!$A:$I,MATCH(MesDataInUnity!F$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="8">
+        <f>VLOOKUP($A20,MesData!$A:$I,MATCH(MesDataInUnity!G$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="8">
+        <f>VLOOKUP($A20,MesData!$A:$I,MATCH(MesDataInUnity!H$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="8">
+        <f>VLOOKUP($A20,MesData!$A:$I,MATCH(MesDataInUnity!I$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1328,22 +1485,28 @@
         <v>101</v>
       </c>
       <c r="D21" s="9">
-        <v>11</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>55</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E21" s="8">
+        <f>VLOOKUP($A21,MesData!$A:$I,MATCH(MesDataInUnity!E$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="8">
+        <f>VLOOKUP($A21,MesData!$A:$I,MATCH(MesDataInUnity!F$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="8">
+        <f>VLOOKUP($A21,MesData!$A:$I,MATCH(MesDataInUnity!G$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="8">
+        <f>VLOOKUP($A21,MesData!$A:$I,MATCH(MesDataInUnity!H$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="8">
+        <f>VLOOKUP($A21,MesData!$A:$I,MATCH(MesDataInUnity!I$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1357,22 +1520,28 @@
         <v>102</v>
       </c>
       <c r="D22" s="9">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E22" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>55</v>
+      <c r="E22" s="8" t="str">
+        <f>VLOOKUP($A22,MesData!$A:$I,MATCH(MesDataInUnity!E$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>元氣JK</v>
+      </c>
+      <c r="F22" s="8" t="str">
+        <f>VLOOKUP($A22,MesData!$A:$I,MATCH(MesDataInUnity!F$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>元氣JK</v>
+      </c>
+      <c r="G22" s="8" t="str">
+        <f>VLOOKUP($A22,MesData!$A:$I,MATCH(MesDataInUnity!G$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>元氣JK</v>
+      </c>
+      <c r="H22" s="8" t="str">
+        <f>VLOOKUP($A22,MesData!$A:$I,MATCH(MesDataInUnity!H$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>元氣JK</v>
+      </c>
+      <c r="I22" s="8" t="str">
+        <f>VLOOKUP($A22,MesData!$A:$I,MATCH(MesDataInUnity!I$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>元氣JK</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -1386,22 +1555,28 @@
         <v>102</v>
       </c>
       <c r="D23" s="9">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E23" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>55</v>
+      <c r="E23" s="8" t="str">
+        <f>VLOOKUP($A23,MesData!$A:$I,MATCH(MesDataInUnity!E$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>元氣JD</v>
+      </c>
+      <c r="F23" s="8" t="str">
+        <f>VLOOKUP($A23,MesData!$A:$I,MATCH(MesDataInUnity!F$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>元氣JD</v>
+      </c>
+      <c r="G23" s="8" t="str">
+        <f>VLOOKUP($A23,MesData!$A:$I,MATCH(MesDataInUnity!G$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>元氣JD</v>
+      </c>
+      <c r="H23" s="8" t="str">
+        <f>VLOOKUP($A23,MesData!$A:$I,MATCH(MesDataInUnity!H$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>元氣JD</v>
+      </c>
+      <c r="I23" s="8" t="str">
+        <f>VLOOKUP($A23,MesData!$A:$I,MATCH(MesDataInUnity!I$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>元氣JD</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1415,22 +1590,28 @@
         <v>102</v>
       </c>
       <c r="D24" s="9">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E24" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I24" s="8" t="s">
-        <v>55</v>
+      <c r="E24" s="8">
+        <f>VLOOKUP($A24,MesData!$A:$I,MATCH(MesDataInUnity!E$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="8">
+        <f>VLOOKUP($A24,MesData!$A:$I,MATCH(MesDataInUnity!F$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="8">
+        <f>VLOOKUP($A24,MesData!$A:$I,MATCH(MesDataInUnity!G$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="8">
+        <f>VLOOKUP($A24,MesData!$A:$I,MATCH(MesDataInUnity!H$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="8">
+        <f>VLOOKUP($A24,MesData!$A:$I,MATCH(MesDataInUnity!I$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1444,22 +1625,28 @@
         <v>102</v>
       </c>
       <c r="D25" s="9">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E25" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I25" s="8" t="s">
-        <v>55</v>
+      <c r="E25" s="8">
+        <f>VLOOKUP($A25,MesData!$A:$I,MATCH(MesDataInUnity!E$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F25" s="8">
+        <f>VLOOKUP($A25,MesData!$A:$I,MATCH(MesDataInUnity!F$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G25" s="8">
+        <f>VLOOKUP($A25,MesData!$A:$I,MATCH(MesDataInUnity!G$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="8">
+        <f>VLOOKUP($A25,MesData!$A:$I,MATCH(MesDataInUnity!H$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="8">
+        <f>VLOOKUP($A25,MesData!$A:$I,MATCH(MesDataInUnity!I$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -1473,22 +1660,28 @@
         <v>103</v>
       </c>
       <c r="D26" s="9">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E26" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I26" s="8" t="s">
-        <v>55</v>
+      <c r="E26" s="8">
+        <f>VLOOKUP($A26,MesData!$A:$I,MATCH(MesDataInUnity!E$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="8">
+        <f>VLOOKUP($A26,MesData!$A:$I,MATCH(MesDataInUnity!F$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="8">
+        <f>VLOOKUP($A26,MesData!$A:$I,MATCH(MesDataInUnity!G$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H26" s="8">
+        <f>VLOOKUP($A26,MesData!$A:$I,MATCH(MesDataInUnity!H$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="8">
+        <f>VLOOKUP($A26,MesData!$A:$I,MATCH(MesDataInUnity!I$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -1502,22 +1695,28 @@
         <v>103</v>
       </c>
       <c r="D27" s="9">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E27" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I27" s="8" t="s">
-        <v>55</v>
+      <c r="E27" s="8">
+        <f>VLOOKUP($A27,MesData!$A:$I,MATCH(MesDataInUnity!E$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="8">
+        <f>VLOOKUP($A27,MesData!$A:$I,MATCH(MesDataInUnity!F$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="8">
+        <f>VLOOKUP($A27,MesData!$A:$I,MATCH(MesDataInUnity!G$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="8">
+        <f>VLOOKUP($A27,MesData!$A:$I,MATCH(MesDataInUnity!H$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="8">
+        <f>VLOOKUP($A27,MesData!$A:$I,MATCH(MesDataInUnity!I$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -1531,22 +1730,28 @@
         <v>103</v>
       </c>
       <c r="D28" s="9">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E28" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I28" s="8" t="s">
-        <v>55</v>
+      <c r="E28" s="8">
+        <f>VLOOKUP($A28,MesData!$A:$I,MATCH(MesDataInUnity!E$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F28" s="8">
+        <f>VLOOKUP($A28,MesData!$A:$I,MATCH(MesDataInUnity!F$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G28" s="8">
+        <f>VLOOKUP($A28,MesData!$A:$I,MATCH(MesDataInUnity!G$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="8">
+        <f>VLOOKUP($A28,MesData!$A:$I,MATCH(MesDataInUnity!H$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="8">
+        <f>VLOOKUP($A28,MesData!$A:$I,MATCH(MesDataInUnity!I$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -1560,312 +1765,238 @@
         <v>103</v>
       </c>
       <c r="D29" s="9">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E29" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H29" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I29" s="8" t="s">
-        <v>55</v>
+      <c r="E29" s="8">
+        <f>VLOOKUP($A29,MesData!$A:$I,MATCH(MesDataInUnity!E$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F29" s="8">
+        <f>VLOOKUP($A29,MesData!$A:$I,MATCH(MesDataInUnity!F$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G29" s="8">
+        <f>VLOOKUP($A29,MesData!$A:$I,MATCH(MesDataInUnity!G$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H29" s="8">
+        <f>VLOOKUP($A29,MesData!$A:$I,MATCH(MesDataInUnity!H$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I29" s="8">
+        <f>VLOOKUP($A29,MesData!$A:$I,MATCH(MesDataInUnity!I$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
-        <v>10305</v>
+        <v>10401</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>55</v>
       </c>
       <c r="C30" s="8">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D30" s="9">
-        <v>5</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H30" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I30" s="8" t="s">
-        <v>55</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E30" s="8" t="str">
+        <f>VLOOKUP($A30,MesData!$A:$I,MATCH(MesDataInUnity!E$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>手槍</v>
+      </c>
+      <c r="F30" s="8" t="str">
+        <f>VLOOKUP($A30,MesData!$A:$I,MATCH(MesDataInUnity!F$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>手槍</v>
+      </c>
+      <c r="G30" s="8" t="str">
+        <f>VLOOKUP($A30,MesData!$A:$I,MATCH(MesDataInUnity!G$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>手槍</v>
+      </c>
+      <c r="H30" s="8" t="str">
+        <f>VLOOKUP($A30,MesData!$A:$I,MATCH(MesDataInUnity!H$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>手槍</v>
+      </c>
+      <c r="I30" s="8" t="str">
+        <f>VLOOKUP($A30,MesData!$A:$I,MATCH(MesDataInUnity!I$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>手槍</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
-        <v>10306</v>
+        <v>10402</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>55</v>
       </c>
       <c r="C31" s="8">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D31" s="9">
-        <v>6</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H31" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I31" s="8" t="s">
-        <v>55</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E31" s="8" t="str">
+        <f>VLOOKUP($A31,MesData!$A:$I,MATCH(MesDataInUnity!E$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>機槍</v>
+      </c>
+      <c r="F31" s="8" t="str">
+        <f>VLOOKUP($A31,MesData!$A:$I,MATCH(MesDataInUnity!F$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>機槍</v>
+      </c>
+      <c r="G31" s="8" t="str">
+        <f>VLOOKUP($A31,MesData!$A:$I,MATCH(MesDataInUnity!G$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>機槍</v>
+      </c>
+      <c r="H31" s="8" t="str">
+        <f>VLOOKUP($A31,MesData!$A:$I,MATCH(MesDataInUnity!H$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>機槍</v>
+      </c>
+      <c r="I31" s="8" t="str">
+        <f>VLOOKUP($A31,MesData!$A:$I,MATCH(MesDataInUnity!I$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>機槍</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
-        <v>10501</v>
+        <v>10403</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>55</v>
       </c>
       <c r="C32" s="8">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D32" s="9">
-        <v>1</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H32" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I32" s="8" t="s">
-        <v>55</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E32" s="8" t="str">
+        <f>VLOOKUP($A32,MesData!$A:$I,MATCH(MesDataInUnity!E$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>重槍</v>
+      </c>
+      <c r="F32" s="8" t="str">
+        <f>VLOOKUP($A32,MesData!$A:$I,MATCH(MesDataInUnity!F$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>重槍</v>
+      </c>
+      <c r="G32" s="8" t="str">
+        <f>VLOOKUP($A32,MesData!$A:$I,MATCH(MesDataInUnity!G$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>重槍</v>
+      </c>
+      <c r="H32" s="8" t="str">
+        <f>VLOOKUP($A32,MesData!$A:$I,MATCH(MesDataInUnity!H$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>重槍</v>
+      </c>
+      <c r="I32" s="8" t="str">
+        <f>VLOOKUP($A32,MesData!$A:$I,MATCH(MesDataInUnity!I$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>重槍</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
-        <v>10502</v>
+        <v>10404</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>55</v>
       </c>
       <c r="C33" s="8">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D33" s="9">
-        <v>2</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H33" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I33" s="8" t="s">
-        <v>55</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E33" s="8">
+        <f>VLOOKUP($A33,MesData!$A:$I,MATCH(MesDataInUnity!E$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F33" s="8">
+        <f>VLOOKUP($A33,MesData!$A:$I,MATCH(MesDataInUnity!F$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G33" s="8">
+        <f>VLOOKUP($A33,MesData!$A:$I,MATCH(MesDataInUnity!G$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H33" s="8">
+        <f>VLOOKUP($A33,MesData!$A:$I,MATCH(MesDataInUnity!H$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I33" s="8">
+        <f>VLOOKUP($A33,MesData!$A:$I,MATCH(MesDataInUnity!I$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
-        <v>10503</v>
+        <v>10405</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>55</v>
       </c>
       <c r="C34" s="8">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D34" s="9">
-        <v>3</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G34" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H34" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I34" s="8" t="s">
-        <v>55</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E34" s="8">
+        <f>VLOOKUP($A34,MesData!$A:$I,MATCH(MesDataInUnity!E$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F34" s="8">
+        <f>VLOOKUP($A34,MesData!$A:$I,MATCH(MesDataInUnity!F$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G34" s="8">
+        <f>VLOOKUP($A34,MesData!$A:$I,MATCH(MesDataInUnity!G$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H34" s="8">
+        <f>VLOOKUP($A34,MesData!$A:$I,MATCH(MesDataInUnity!H$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I34" s="8">
+        <f>VLOOKUP($A34,MesData!$A:$I,MATCH(MesDataInUnity!I$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
-        <v>10504</v>
+        <v>10406</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>55</v>
       </c>
       <c r="C35" s="8">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D35" s="9">
-        <v>4</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H35" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I35" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="8">
-        <v>11001</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C36" s="8">
-        <v>110</v>
-      </c>
-      <c r="D36" s="9">
-        <v>1</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H36" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I36" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="8">
-        <v>11002</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C37" s="8">
-        <v>110</v>
-      </c>
-      <c r="D37" s="9">
-        <v>2</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H37" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I37" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="8">
-        <v>11003</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C38" s="8">
-        <v>110</v>
-      </c>
-      <c r="D38" s="9">
-        <v>3</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G38" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H38" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I38" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="8">
-        <v>11004</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C39" s="8">
-        <v>110</v>
-      </c>
-      <c r="D39" s="9">
-        <v>4</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H39" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I39" s="8" t="s">
-        <v>55</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E35" s="8">
+        <f>VLOOKUP($A35,MesData!$A:$I,MATCH(MesDataInUnity!E$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F35" s="8">
+        <f>VLOOKUP($A35,MesData!$A:$I,MATCH(MesDataInUnity!F$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G35" s="8">
+        <f>VLOOKUP($A35,MesData!$A:$I,MATCH(MesDataInUnity!G$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H35" s="8">
+        <f>VLOOKUP($A35,MesData!$A:$I,MATCH(MesDataInUnity!H$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I35" s="8">
+        <f>VLOOKUP($A35,MesData!$A:$I,MATCH(MesDataInUnity!I$1,MesData!$A$2:$I$2,0),FALSE)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1880,10 +2011,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:I60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="D5" sqref="D5:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16" defaultRowHeight="13.5" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -2243,11 +2374,21 @@
         <f>D14+1</f>
         <v>1</v>
       </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
+      <c r="E15" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="16" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
@@ -2263,11 +2404,21 @@
         <f t="shared" ref="D16:D25" si="5">D15+1</f>
         <v>2</v>
       </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
+      <c r="E16" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="17" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
@@ -2454,7 +2605,7 @@
         <v>1</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="C26" s="7">
         <v>102</v>
@@ -2482,11 +2633,21 @@
         <f>D26+1</f>
         <v>1</v>
       </c>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
+      <c r="E27" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="28" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
@@ -2502,11 +2663,21 @@
         <f t="shared" ref="D28:D30" si="9">D27+1</f>
         <v>2</v>
       </c>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
+      <c r="E28" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="29" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
@@ -2553,7 +2724,7 @@
         <v>1</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C31" s="7">
         <v>103</v>
@@ -2569,7 +2740,7 @@
     </row>
     <row r="32" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
-        <f t="shared" ref="A32:A42" si="10">C32*100+D32</f>
+        <f>C32*100+D32</f>
         <v>10301</v>
       </c>
       <c r="B32" s="8"/>
@@ -2589,16 +2760,16 @@
     </row>
     <row r="33" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="A33:A35" si="10">C33*100+D33</f>
         <v>10302</v>
       </c>
       <c r="B33" s="8"/>
       <c r="C33" s="8">
-        <f t="shared" ref="C33:C37" si="11">C32</f>
+        <f t="shared" ref="C33:C35" si="11">C32</f>
         <v>103</v>
       </c>
       <c r="D33" s="9">
-        <f t="shared" ref="D33:D37" si="12">D32+1</f>
+        <f t="shared" ref="D33:D35" si="12">D32+1</f>
         <v>2</v>
       </c>
       <c r="E33" s="8"/>
@@ -2647,98 +2818,128 @@
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
     </row>
-    <row r="36" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="8">
-        <f t="shared" si="10"/>
-        <v>10305</v>
-      </c>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8">
-        <f t="shared" si="11"/>
-        <v>103</v>
-      </c>
-      <c r="D36" s="9">
-        <f t="shared" si="12"/>
-        <v>5</v>
-      </c>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="7">
+        <v>104</v>
+      </c>
+      <c r="D36" s="7">
+        <v>0</v>
+      </c>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
     </row>
     <row r="37" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
-        <f t="shared" si="10"/>
-        <v>10306</v>
+        <f t="shared" ref="A37:A47" si="13">C37*100+D37</f>
+        <v>10401</v>
       </c>
       <c r="B37" s="8"/>
       <c r="C37" s="8">
-        <f t="shared" si="11"/>
-        <v>103</v>
+        <f>C36</f>
+        <v>104</v>
       </c>
       <c r="D37" s="9">
-        <f t="shared" si="12"/>
-        <v>6</v>
-      </c>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
+        <f>D36+1</f>
         <v>1</v>
       </c>
-      <c r="B38" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C38" s="7">
-        <v>105</v>
-      </c>
-      <c r="D38" s="7">
-        <v>0</v>
-      </c>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
+      <c r="E37" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="8">
+        <f t="shared" si="13"/>
+        <v>10402</v>
+      </c>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8">
+        <f t="shared" ref="C38:C42" si="14">C37</f>
+        <v>104</v>
+      </c>
+      <c r="D38" s="9">
+        <f t="shared" ref="D38:D42" si="15">D37+1</f>
+        <v>2</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="39" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
-        <f t="shared" si="10"/>
-        <v>10501</v>
+        <f t="shared" si="13"/>
+        <v>10403</v>
       </c>
       <c r="B39" s="8"/>
       <c r="C39" s="8">
-        <f t="shared" ref="C39:C42" si="13">C38</f>
-        <v>105</v>
+        <f t="shared" si="14"/>
+        <v>104</v>
       </c>
       <c r="D39" s="9">
-        <f t="shared" ref="D39:D42" si="14">D38+1</f>
-        <v>1</v>
-      </c>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="40" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
-        <f t="shared" si="10"/>
-        <v>10502</v>
+        <f t="shared" si="13"/>
+        <v>10404</v>
       </c>
       <c r="B40" s="8"/>
       <c r="C40" s="8">
-        <f t="shared" si="13"/>
-        <v>105</v>
+        <f t="shared" si="14"/>
+        <v>104</v>
       </c>
       <c r="D40" s="9">
-        <f t="shared" si="14"/>
-        <v>2</v>
+        <f t="shared" si="15"/>
+        <v>4</v>
       </c>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
@@ -2748,17 +2949,17 @@
     </row>
     <row r="41" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
-        <f t="shared" si="10"/>
-        <v>10503</v>
+        <f t="shared" si="13"/>
+        <v>10405</v>
       </c>
       <c r="B41" s="8"/>
       <c r="C41" s="8">
-        <f t="shared" si="13"/>
-        <v>105</v>
+        <f t="shared" si="14"/>
+        <v>104</v>
       </c>
       <c r="D41" s="9">
-        <f t="shared" si="14"/>
-        <v>3</v>
+        <f t="shared" si="15"/>
+        <v>5</v>
       </c>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
@@ -2768,17 +2969,17 @@
     </row>
     <row r="42" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
-        <f t="shared" si="10"/>
-        <v>10504</v>
+        <f t="shared" si="13"/>
+        <v>10406</v>
       </c>
       <c r="B42" s="8"/>
       <c r="C42" s="8">
-        <f t="shared" si="13"/>
-        <v>105</v>
+        <f t="shared" si="14"/>
+        <v>104</v>
       </c>
       <c r="D42" s="9">
-        <f t="shared" si="14"/>
-        <v>4</v>
+        <f t="shared" si="15"/>
+        <v>6</v>
       </c>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
@@ -2786,22 +2987,39 @@
       <c r="H42" s="8"/>
       <c r="I42" s="8"/>
     </row>
-    <row r="43" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="8"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" s="7">
+        <v>110</v>
+      </c>
+      <c r="D43" s="7">
+        <v>0</v>
+      </c>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
     </row>
     <row r="44" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="8"/>
+      <c r="A44" s="8">
+        <f t="shared" si="13"/>
+        <v>11001</v>
+      </c>
       <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="9"/>
+      <c r="C44" s="8">
+        <f t="shared" ref="C44:C47" si="16">C43</f>
+        <v>110</v>
+      </c>
+      <c r="D44" s="9">
+        <f t="shared" ref="D44:D47" si="17">D43+1</f>
+        <v>1</v>
+      </c>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
@@ -2809,10 +3027,19 @@
       <c r="I44" s="8"/>
     </row>
     <row r="45" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="8"/>
+      <c r="A45" s="8">
+        <f t="shared" si="13"/>
+        <v>11002</v>
+      </c>
       <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="9"/>
+      <c r="C45" s="8">
+        <f t="shared" si="16"/>
+        <v>110</v>
+      </c>
+      <c r="D45" s="9">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
@@ -2820,10 +3047,19 @@
       <c r="I45" s="8"/>
     </row>
     <row r="46" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="8"/>
+      <c r="A46" s="8">
+        <f t="shared" si="13"/>
+        <v>11003</v>
+      </c>
       <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="9"/>
+      <c r="C46" s="8">
+        <f t="shared" si="16"/>
+        <v>110</v>
+      </c>
+      <c r="D46" s="9">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
@@ -2831,10 +3067,19 @@
       <c r="I46" s="8"/>
     </row>
     <row r="47" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="8"/>
+      <c r="A47" s="8">
+        <f t="shared" si="13"/>
+        <v>11004</v>
+      </c>
       <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="9"/>
+      <c r="C47" s="8">
+        <f t="shared" si="16"/>
+        <v>110</v>
+      </c>
+      <c r="D47" s="9">
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
@@ -2874,104 +3119,159 @@
       <c r="H50" s="8"/>
       <c r="I50" s="8"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C51" s="7">
-        <v>110</v>
-      </c>
-      <c r="D51" s="7">
-        <v>0</v>
-      </c>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="8">
-        <f t="shared" ref="A52:A55" si="15">C52*100+D52</f>
-        <v>11001</v>
-      </c>
+    <row r="51" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="8"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+    </row>
+    <row r="52" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="8"/>
       <c r="B52" s="8"/>
-      <c r="C52" s="8">
-        <f t="shared" ref="C52:C55" si="16">C51</f>
-        <v>110</v>
-      </c>
-      <c r="D52" s="9">
-        <f>D51+1</f>
-        <v>1</v>
-      </c>
+      <c r="C52" s="8"/>
+      <c r="D52" s="9"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c r="H52" s="8"/>
       <c r="I52" s="8"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="8">
-        <f t="shared" si="15"/>
-        <v>11002</v>
-      </c>
+    <row r="53" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="8"/>
       <c r="B53" s="8"/>
-      <c r="C53" s="8">
-        <f t="shared" si="16"/>
-        <v>110</v>
-      </c>
-      <c r="D53" s="9">
-        <f t="shared" ref="D53:D55" si="17">D52+1</f>
-        <v>2</v>
-      </c>
+      <c r="C53" s="8"/>
+      <c r="D53" s="9"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="8">
-        <f t="shared" si="15"/>
-        <v>11003</v>
-      </c>
+    <row r="54" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="8"/>
       <c r="B54" s="8"/>
-      <c r="C54" s="8">
-        <f t="shared" si="16"/>
-        <v>110</v>
-      </c>
-      <c r="D54" s="9">
-        <f t="shared" si="17"/>
-        <v>3</v>
-      </c>
+      <c r="C54" s="8"/>
+      <c r="D54" s="9"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c r="H54" s="8"/>
       <c r="I54" s="8"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="8">
-        <f t="shared" si="15"/>
-        <v>11004</v>
-      </c>
+    <row r="55" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="8"/>
       <c r="B55" s="8"/>
-      <c r="C55" s="8">
-        <f t="shared" si="16"/>
-        <v>110</v>
-      </c>
-      <c r="D55" s="9">
-        <f t="shared" si="17"/>
-        <v>4</v>
-      </c>
+      <c r="C55" s="8"/>
+      <c r="D55" s="9"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c r="H55" s="8"/>
       <c r="I55" s="8"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C56" s="7">
+        <v>110</v>
+      </c>
+      <c r="D56" s="7">
+        <v>0</v>
+      </c>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="8">
+        <f t="shared" ref="A57:A60" si="18">C57*100+D57</f>
+        <v>11001</v>
+      </c>
+      <c r="B57" s="8"/>
+      <c r="C57" s="8">
+        <f t="shared" ref="C57:C60" si="19">C56</f>
+        <v>110</v>
+      </c>
+      <c r="D57" s="9">
+        <f>D56+1</f>
+        <v>1</v>
+      </c>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="8">
+        <f t="shared" si="18"/>
+        <v>11002</v>
+      </c>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8">
+        <f t="shared" si="19"/>
+        <v>110</v>
+      </c>
+      <c r="D58" s="9">
+        <f t="shared" ref="D58:D60" si="20">D57+1</f>
+        <v>2</v>
+      </c>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="8">
+        <f t="shared" si="18"/>
+        <v>11003</v>
+      </c>
+      <c r="B59" s="8"/>
+      <c r="C59" s="8">
+        <f t="shared" si="19"/>
+        <v>110</v>
+      </c>
+      <c r="D59" s="9">
+        <f t="shared" si="20"/>
+        <v>3</v>
+      </c>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="8">
+        <f t="shared" si="18"/>
+        <v>11004</v>
+      </c>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8">
+        <f t="shared" si="19"/>
+        <v>110</v>
+      </c>
+      <c r="D60" s="9">
+        <f t="shared" si="20"/>
+        <v>4</v>
+      </c>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2984,7 +3284,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Excel/001_String.xlsx
+++ b/Assets/Excel/001_String.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="MesDataInUnity" sheetId="3" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="185">
   <si>
     <t>int</t>
   </si>
@@ -499,6 +499,171 @@
   <si>
     <t>彈跳槍</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>預留</t>
+  </si>
+  <si>
+    <t>替換</t>
+  </si>
+  <si>
+    <t>Change</t>
+  </si>
+  <si>
+    <t>回到主選單</t>
+  </si>
+  <si>
+    <t>Back to Menu</t>
+  </si>
+  <si>
+    <t>繼續</t>
+  </si>
+  <si>
+    <t>Resume</t>
+  </si>
+  <si>
+    <t>開始遊戲</t>
+  </si>
+  <si>
+    <t>Start Game</t>
+  </si>
+  <si>
+    <t>排行榜</t>
+  </si>
+  <si>
+    <t>LeaderBoard</t>
+  </si>
+  <si>
+    <t>設定</t>
+  </si>
+  <si>
+    <t>Setting</t>
+  </si>
+  <si>
+    <t>離開遊戲</t>
+  </si>
+  <si>
+    <t>Exit Game</t>
+  </si>
+  <si>
+    <t>角色切換</t>
+  </si>
+  <si>
+    <t>武器切換</t>
+  </si>
+  <si>
+    <t>開發設備</t>
+  </si>
+  <si>
+    <t>出任務</t>
+  </si>
+  <si>
+    <t>主音量</t>
+  </si>
+  <si>
+    <t>Main Volume</t>
+  </si>
+  <si>
+    <t>音樂</t>
+  </si>
+  <si>
+    <t>BGM</t>
+  </si>
+  <si>
+    <t>音效</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>暫停</t>
+  </si>
+  <si>
+    <t>Pasue</t>
+  </si>
+  <si>
+    <t>血量</t>
+  </si>
+  <si>
+    <t>預設武器</t>
+  </si>
+  <si>
+    <t>再生</t>
+  </si>
+  <si>
+    <t>再生頻率</t>
+  </si>
+  <si>
+    <t>力量</t>
+  </si>
+  <si>
+    <t>輕型武器攻擊倍率</t>
+  </si>
+  <si>
+    <t>中型武器攻擊倍率</t>
+  </si>
+  <si>
+    <t>重型武器攻擊倍率</t>
+  </si>
+  <si>
+    <t>爆擊機率(%)</t>
+  </si>
+  <si>
+    <t>爆擊倍率</t>
+  </si>
+  <si>
+    <t>護盾值</t>
+  </si>
+  <si>
+    <t>偷取生命倍率</t>
+  </si>
+  <si>
+    <t>偷取生命值</t>
+  </si>
+  <si>
+    <t>迴避率(%)</t>
+  </si>
+  <si>
+    <t>技能冷卻(%)</t>
+  </si>
+  <si>
+    <t>運氣值</t>
+  </si>
+  <si>
+    <t>妹子</t>
+  </si>
+  <si>
+    <t>武器櫃</t>
+  </si>
+  <si>
+    <t>種類</t>
+  </si>
+  <si>
+    <t>火力</t>
+  </si>
+  <si>
+    <t>攻速</t>
+  </si>
+  <si>
+    <t>附加效果</t>
+  </si>
+  <si>
+    <t>手槍</t>
+  </si>
+  <si>
+    <t>機槍</t>
+  </si>
+  <si>
+    <t>狙擊槍</t>
+  </si>
+  <si>
+    <t>散彈槍</t>
+  </si>
+  <si>
+    <t>分裂槍</t>
+  </si>
+  <si>
+    <t>技能飾品</t>
   </si>
 </sst>
 </file>
@@ -1021,13 +1186,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I79"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="J58" sqref="J58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="6" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.625" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="12.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1064,9 +1234,8 @@
       <c r="A2" s="8">
         <v>10001</v>
       </c>
-      <c r="B2" s="8" t="str">
-        <f>E2</f>
-        <v>確定</v>
+      <c r="B2" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="C2" s="8">
         <v>100</v>
@@ -1074,34 +1243,28 @@
       <c r="D2" s="9">
         <v>1</v>
       </c>
-      <c r="E2" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A2,MesData!$A:$J,MATCH(MesDataInUnity!E$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>確定</v>
-      </c>
-      <c r="F2" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A2,MesData!$A:$J,MATCH(MesDataInUnity!F$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>預留</v>
-      </c>
-      <c r="G2" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A2,MesData!$A:$J,MATCH(MesDataInUnity!G$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>Confirm</v>
-      </c>
-      <c r="H2" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A2,MesData!$A:$J,MATCH(MesDataInUnity!H$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>Confirm</v>
-      </c>
-      <c r="I2" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A2,MesData!$A:$J,MATCH(MesDataInUnity!I$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>Confirm</v>
+      <c r="E2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>10002</v>
       </c>
-      <c r="B3" s="8" t="str">
-        <f t="shared" ref="B3:B39" si="0">E3</f>
-        <v>取消</v>
+      <c r="B3" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="C3" s="8">
         <v>100</v>
@@ -1109,34 +1272,28 @@
       <c r="D3" s="9">
         <v>2</v>
       </c>
-      <c r="E3" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A3,MesData!$A:$J,MATCH(MesDataInUnity!E$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>取消</v>
-      </c>
-      <c r="F3" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A3,MesData!$A:$J,MATCH(MesDataInUnity!F$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>預留</v>
-      </c>
-      <c r="G3" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A3,MesData!$A:$J,MATCH(MesDataInUnity!G$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>Cancel</v>
-      </c>
-      <c r="H3" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A3,MesData!$A:$J,MATCH(MesDataInUnity!H$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>Cancel</v>
-      </c>
-      <c r="I3" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A3,MesData!$A:$J,MATCH(MesDataInUnity!I$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>Cancel</v>
+      <c r="E3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>10003</v>
       </c>
-      <c r="B4" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>替換</v>
+      <c r="B4" s="8" t="s">
+        <v>131</v>
       </c>
       <c r="C4" s="8">
         <v>100</v>
@@ -1144,34 +1301,28 @@
       <c r="D4" s="9">
         <v>3</v>
       </c>
-      <c r="E4" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A4,MesData!$A:$J,MATCH(MesDataInUnity!E$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>替換</v>
-      </c>
-      <c r="F4" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A4,MesData!$A:$J,MATCH(MesDataInUnity!F$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>替換</v>
-      </c>
-      <c r="G4" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A4,MesData!$A:$J,MATCH(MesDataInUnity!G$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>Change</v>
-      </c>
-      <c r="H4" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A4,MesData!$A:$J,MATCH(MesDataInUnity!H$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>Change</v>
-      </c>
-      <c r="I4" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A4,MesData!$A:$J,MATCH(MesDataInUnity!I$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>Change</v>
+      <c r="E4" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>10004</v>
       </c>
-      <c r="B5" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>回到主選單</v>
+      <c r="B5" s="8" t="s">
+        <v>133</v>
       </c>
       <c r="C5" s="8">
         <v>100</v>
@@ -1179,34 +1330,28 @@
       <c r="D5" s="9">
         <v>4</v>
       </c>
-      <c r="E5" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A5,MesData!$A:$J,MATCH(MesDataInUnity!E$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>回到主選單</v>
-      </c>
-      <c r="F5" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A5,MesData!$A:$J,MATCH(MesDataInUnity!F$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>回到主選單</v>
-      </c>
-      <c r="G5" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A5,MesData!$A:$J,MATCH(MesDataInUnity!G$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>Back to Menu</v>
-      </c>
-      <c r="H5" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A5,MesData!$A:$J,MATCH(MesDataInUnity!H$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>Back to Menu</v>
-      </c>
-      <c r="I5" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A5,MesData!$A:$J,MATCH(MesDataInUnity!I$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>Back to Menu</v>
+      <c r="E5" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>10005</v>
       </c>
-      <c r="B6" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>繼續</v>
+      <c r="B6" s="8" t="s">
+        <v>135</v>
       </c>
       <c r="C6" s="8">
         <v>100</v>
@@ -1214,25 +1359,20 @@
       <c r="D6" s="9">
         <v>5</v>
       </c>
-      <c r="E6" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A6,MesData!$A:$J,MATCH(MesDataInUnity!E$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>繼續</v>
-      </c>
-      <c r="F6" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A6,MesData!$A:$J,MATCH(MesDataInUnity!F$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>繼續</v>
-      </c>
-      <c r="G6" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A6,MesData!$A:$J,MATCH(MesDataInUnity!G$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>Resume</v>
-      </c>
-      <c r="H6" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A6,MesData!$A:$J,MATCH(MesDataInUnity!H$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>Resume</v>
-      </c>
-      <c r="I6" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A6,MesData!$A:$J,MATCH(MesDataInUnity!I$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>Resume</v>
+      <c r="E6" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1240,7 +1380,6 @@
         <v>10006</v>
       </c>
       <c r="B7" s="8">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C7" s="8">
@@ -1250,23 +1389,18 @@
         <v>6</v>
       </c>
       <c r="E7" s="8">
-        <f>_xlfn.IFNA(VLOOKUP($A7,MesData!$A:$J,MATCH(MesDataInUnity!E$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="F7" s="8">
-        <f>_xlfn.IFNA(VLOOKUP($A7,MesData!$A:$J,MATCH(MesDataInUnity!F$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G7" s="8">
-        <f>_xlfn.IFNA(VLOOKUP($A7,MesData!$A:$J,MATCH(MesDataInUnity!G$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H7" s="8">
-        <f>_xlfn.IFNA(VLOOKUP($A7,MesData!$A:$J,MATCH(MesDataInUnity!H$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I7" s="8">
-        <f>_xlfn.IFNA(VLOOKUP($A7,MesData!$A:$J,MATCH(MesDataInUnity!I$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -1275,7 +1409,6 @@
         <v>10007</v>
       </c>
       <c r="B8" s="8">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C8" s="8">
@@ -1285,23 +1418,18 @@
         <v>7</v>
       </c>
       <c r="E8" s="8">
-        <f>_xlfn.IFNA(VLOOKUP($A8,MesData!$A:$J,MATCH(MesDataInUnity!E$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="F8" s="8">
-        <f>_xlfn.IFNA(VLOOKUP($A8,MesData!$A:$J,MATCH(MesDataInUnity!F$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G8" s="8">
-        <f>_xlfn.IFNA(VLOOKUP($A8,MesData!$A:$J,MATCH(MesDataInUnity!G$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H8" s="8">
-        <f>_xlfn.IFNA(VLOOKUP($A8,MesData!$A:$J,MATCH(MesDataInUnity!H$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I8" s="8">
-        <f>_xlfn.IFNA(VLOOKUP($A8,MesData!$A:$J,MATCH(MesDataInUnity!I$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -1309,9 +1437,8 @@
       <c r="A9" s="8">
         <v>10101</v>
       </c>
-      <c r="B9" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>開始遊戲</v>
+      <c r="B9" s="8" t="s">
+        <v>137</v>
       </c>
       <c r="C9" s="8">
         <v>100</v>
@@ -1319,34 +1446,28 @@
       <c r="D9" s="9">
         <v>8</v>
       </c>
-      <c r="E9" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A9,MesData!$A:$J,MATCH(MesDataInUnity!E$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>開始遊戲</v>
-      </c>
-      <c r="F9" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A9,MesData!$A:$J,MATCH(MesDataInUnity!F$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>開始遊戲</v>
-      </c>
-      <c r="G9" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A9,MesData!$A:$J,MATCH(MesDataInUnity!G$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>Start Game</v>
-      </c>
-      <c r="H9" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A9,MesData!$A:$J,MATCH(MesDataInUnity!H$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>Start Game</v>
-      </c>
-      <c r="I9" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A9,MesData!$A:$J,MATCH(MesDataInUnity!I$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>Start Game</v>
+      <c r="E9" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>10102</v>
       </c>
-      <c r="B10" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>排行榜</v>
+      <c r="B10" s="8" t="s">
+        <v>139</v>
       </c>
       <c r="C10" s="8">
         <v>100</v>
@@ -1354,34 +1475,28 @@
       <c r="D10" s="9">
         <v>9</v>
       </c>
-      <c r="E10" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A10,MesData!$A:$J,MATCH(MesDataInUnity!E$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>排行榜</v>
-      </c>
-      <c r="F10" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A10,MesData!$A:$J,MATCH(MesDataInUnity!F$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>排行榜</v>
-      </c>
-      <c r="G10" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A10,MesData!$A:$J,MATCH(MesDataInUnity!G$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>LeaderBoard</v>
-      </c>
-      <c r="H10" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A10,MesData!$A:$J,MATCH(MesDataInUnity!H$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>LeaderBoard</v>
-      </c>
-      <c r="I10" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A10,MesData!$A:$J,MATCH(MesDataInUnity!I$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>LeaderBoard</v>
+      <c r="E10" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>10103</v>
       </c>
-      <c r="B11" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>設定</v>
+      <c r="B11" s="8" t="s">
+        <v>141</v>
       </c>
       <c r="C11" s="8">
         <v>101</v>
@@ -1389,34 +1504,28 @@
       <c r="D11" s="9">
         <v>1</v>
       </c>
-      <c r="E11" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A11,MesData!$A:$J,MATCH(MesDataInUnity!E$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>設定</v>
-      </c>
-      <c r="F11" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A11,MesData!$A:$J,MATCH(MesDataInUnity!F$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>設定</v>
-      </c>
-      <c r="G11" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A11,MesData!$A:$J,MATCH(MesDataInUnity!G$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>Setting</v>
-      </c>
-      <c r="H11" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A11,MesData!$A:$J,MATCH(MesDataInUnity!H$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>Setting</v>
-      </c>
-      <c r="I11" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A11,MesData!$A:$J,MATCH(MesDataInUnity!I$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>Setting</v>
+      <c r="E11" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>10104</v>
       </c>
-      <c r="B12" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>離開遊戲</v>
+      <c r="B12" s="8" t="s">
+        <v>143</v>
       </c>
       <c r="C12" s="8">
         <v>101</v>
@@ -1424,34 +1533,28 @@
       <c r="D12" s="9">
         <v>2</v>
       </c>
-      <c r="E12" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A12,MesData!$A:$J,MATCH(MesDataInUnity!E$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>離開遊戲</v>
-      </c>
-      <c r="F12" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A12,MesData!$A:$J,MATCH(MesDataInUnity!F$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>離開遊戲</v>
-      </c>
-      <c r="G12" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A12,MesData!$A:$J,MATCH(MesDataInUnity!G$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>Exit Game</v>
-      </c>
-      <c r="H12" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A12,MesData!$A:$J,MATCH(MesDataInUnity!H$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>Exit Game</v>
-      </c>
-      <c r="I12" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A12,MesData!$A:$J,MATCH(MesDataInUnity!I$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>Exit Game</v>
+      <c r="E12" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>10105</v>
       </c>
-      <c r="B13" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>角色切換</v>
+      <c r="B13" s="8" t="s">
+        <v>145</v>
       </c>
       <c r="C13" s="8">
         <v>101</v>
@@ -1459,34 +1562,28 @@
       <c r="D13" s="9">
         <v>3</v>
       </c>
-      <c r="E13" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A13,MesData!$A:$J,MATCH(MesDataInUnity!E$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>角色切換</v>
-      </c>
-      <c r="F13" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A13,MesData!$A:$J,MATCH(MesDataInUnity!F$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>角色切換</v>
-      </c>
-      <c r="G13" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A13,MesData!$A:$J,MATCH(MesDataInUnity!G$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>角色切換</v>
-      </c>
-      <c r="H13" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A13,MesData!$A:$J,MATCH(MesDataInUnity!H$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>角色切換</v>
-      </c>
-      <c r="I13" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A13,MesData!$A:$J,MATCH(MesDataInUnity!I$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>角色切換</v>
+      <c r="E13" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>10106</v>
       </c>
-      <c r="B14" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>武器切換</v>
+      <c r="B14" s="8" t="s">
+        <v>146</v>
       </c>
       <c r="C14" s="8">
         <v>101</v>
@@ -1494,34 +1591,28 @@
       <c r="D14" s="9">
         <v>4</v>
       </c>
-      <c r="E14" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A14,MesData!$A:$J,MATCH(MesDataInUnity!E$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>武器切換</v>
-      </c>
-      <c r="F14" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A14,MesData!$A:$J,MATCH(MesDataInUnity!F$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>武器切換</v>
-      </c>
-      <c r="G14" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A14,MesData!$A:$J,MATCH(MesDataInUnity!G$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>武器切換</v>
-      </c>
-      <c r="H14" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A14,MesData!$A:$J,MATCH(MesDataInUnity!H$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>武器切換</v>
-      </c>
-      <c r="I14" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A14,MesData!$A:$J,MATCH(MesDataInUnity!I$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>武器切換</v>
+      <c r="E14" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>10107</v>
       </c>
-      <c r="B15" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>開發設備</v>
+      <c r="B15" s="8" t="s">
+        <v>147</v>
       </c>
       <c r="C15" s="8">
         <v>101</v>
@@ -1529,34 +1620,28 @@
       <c r="D15" s="9">
         <v>5</v>
       </c>
-      <c r="E15" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A15,MesData!$A:$J,MATCH(MesDataInUnity!E$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>開發設備</v>
-      </c>
-      <c r="F15" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A15,MesData!$A:$J,MATCH(MesDataInUnity!F$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>開發設備</v>
-      </c>
-      <c r="G15" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A15,MesData!$A:$J,MATCH(MesDataInUnity!G$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>開發設備</v>
-      </c>
-      <c r="H15" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A15,MesData!$A:$J,MATCH(MesDataInUnity!H$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>開發設備</v>
-      </c>
-      <c r="I15" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A15,MesData!$A:$J,MATCH(MesDataInUnity!I$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>開發設備</v>
+      <c r="E15" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>10108</v>
       </c>
-      <c r="B16" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>出任務</v>
+      <c r="B16" s="8" t="s">
+        <v>148</v>
       </c>
       <c r="C16" s="8">
         <v>101</v>
@@ -1564,34 +1649,28 @@
       <c r="D16" s="9">
         <v>6</v>
       </c>
-      <c r="E16" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A16,MesData!$A:$J,MATCH(MesDataInUnity!E$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>出任務</v>
-      </c>
-      <c r="F16" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A16,MesData!$A:$J,MATCH(MesDataInUnity!F$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>出任務</v>
-      </c>
-      <c r="G16" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A16,MesData!$A:$J,MATCH(MesDataInUnity!G$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>出任務</v>
-      </c>
-      <c r="H16" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A16,MesData!$A:$J,MATCH(MesDataInUnity!H$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>出任務</v>
-      </c>
-      <c r="I16" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A16,MesData!$A:$J,MATCH(MesDataInUnity!I$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>出任務</v>
+      <c r="E16" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>10201</v>
       </c>
-      <c r="B17" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>主音量</v>
+      <c r="B17" s="8" t="s">
+        <v>149</v>
       </c>
       <c r="C17" s="8">
         <v>101</v>
@@ -1599,34 +1678,28 @@
       <c r="D17" s="9">
         <v>7</v>
       </c>
-      <c r="E17" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A17,MesData!$A:$J,MATCH(MesDataInUnity!E$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>主音量</v>
-      </c>
-      <c r="F17" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A17,MesData!$A:$J,MATCH(MesDataInUnity!F$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>主音量</v>
-      </c>
-      <c r="G17" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A17,MesData!$A:$J,MATCH(MesDataInUnity!G$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>Main Volume</v>
-      </c>
-      <c r="H17" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A17,MesData!$A:$J,MATCH(MesDataInUnity!H$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>Main Volume</v>
-      </c>
-      <c r="I17" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A17,MesData!$A:$J,MATCH(MesDataInUnity!I$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>Main Volume</v>
+      <c r="E17" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>10202</v>
       </c>
-      <c r="B18" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>音樂</v>
+      <c r="B18" s="8" t="s">
+        <v>151</v>
       </c>
       <c r="C18" s="8">
         <v>101</v>
@@ -1634,34 +1707,28 @@
       <c r="D18" s="9">
         <v>8</v>
       </c>
-      <c r="E18" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A18,MesData!$A:$J,MATCH(MesDataInUnity!E$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>音樂</v>
-      </c>
-      <c r="F18" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A18,MesData!$A:$J,MATCH(MesDataInUnity!F$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>音樂</v>
-      </c>
-      <c r="G18" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A18,MesData!$A:$J,MATCH(MesDataInUnity!G$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>BGM</v>
-      </c>
-      <c r="H18" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A18,MesData!$A:$J,MATCH(MesDataInUnity!H$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>BGM</v>
-      </c>
-      <c r="I18" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A18,MesData!$A:$J,MATCH(MesDataInUnity!I$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>BGM</v>
+      <c r="E18" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>10203</v>
       </c>
-      <c r="B19" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>音效</v>
+      <c r="B19" s="8" t="s">
+        <v>153</v>
       </c>
       <c r="C19" s="8">
         <v>101</v>
@@ -1669,25 +1736,20 @@
       <c r="D19" s="9">
         <v>9</v>
       </c>
-      <c r="E19" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A19,MesData!$A:$J,MATCH(MesDataInUnity!E$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>音效</v>
-      </c>
-      <c r="F19" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A19,MesData!$A:$J,MATCH(MesDataInUnity!F$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>音效</v>
-      </c>
-      <c r="G19" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A19,MesData!$A:$J,MATCH(MesDataInUnity!G$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>SE</v>
-      </c>
-      <c r="H19" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A19,MesData!$A:$J,MATCH(MesDataInUnity!H$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>SE</v>
-      </c>
-      <c r="I19" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A19,MesData!$A:$J,MATCH(MesDataInUnity!I$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>SE</v>
+      <c r="E19" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1695,7 +1757,6 @@
         <v>10204</v>
       </c>
       <c r="B20" s="8">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C20" s="8">
@@ -1705,23 +1766,18 @@
         <v>10</v>
       </c>
       <c r="E20" s="8">
-        <f>_xlfn.IFNA(VLOOKUP($A20,MesData!$A:$J,MATCH(MesDataInUnity!E$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="F20" s="8">
-        <f>_xlfn.IFNA(VLOOKUP($A20,MesData!$A:$J,MATCH(MesDataInUnity!F$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G20" s="8">
-        <f>_xlfn.IFNA(VLOOKUP($A20,MesData!$A:$J,MATCH(MesDataInUnity!G$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H20" s="8">
-        <f>_xlfn.IFNA(VLOOKUP($A20,MesData!$A:$J,MATCH(MesDataInUnity!H$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I20" s="8">
-        <f>_xlfn.IFNA(VLOOKUP($A20,MesData!$A:$J,MATCH(MesDataInUnity!I$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -1730,7 +1786,6 @@
         <v>10205</v>
       </c>
       <c r="B21" s="8">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C21" s="8">
@@ -1740,23 +1795,18 @@
         <v>11</v>
       </c>
       <c r="E21" s="8">
-        <f>_xlfn.IFNA(VLOOKUP($A21,MesData!$A:$J,MATCH(MesDataInUnity!E$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="F21" s="8">
-        <f>_xlfn.IFNA(VLOOKUP($A21,MesData!$A:$J,MATCH(MesDataInUnity!F$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G21" s="8">
-        <f>_xlfn.IFNA(VLOOKUP($A21,MesData!$A:$J,MATCH(MesDataInUnity!G$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H21" s="8">
-        <f>_xlfn.IFNA(VLOOKUP($A21,MesData!$A:$J,MATCH(MesDataInUnity!H$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I21" s="8">
-        <f>_xlfn.IFNA(VLOOKUP($A21,MesData!$A:$J,MATCH(MesDataInUnity!I$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -1765,7 +1815,6 @@
         <v>10206</v>
       </c>
       <c r="B22" s="8">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C22" s="8">
@@ -1775,23 +1824,18 @@
         <v>1</v>
       </c>
       <c r="E22" s="8">
-        <f>_xlfn.IFNA(VLOOKUP($A22,MesData!$A:$J,MATCH(MesDataInUnity!E$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="F22" s="8">
-        <f>_xlfn.IFNA(VLOOKUP($A22,MesData!$A:$J,MATCH(MesDataInUnity!F$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G22" s="8">
-        <f>_xlfn.IFNA(VLOOKUP($A22,MesData!$A:$J,MATCH(MesDataInUnity!G$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H22" s="8">
-        <f>_xlfn.IFNA(VLOOKUP($A22,MesData!$A:$J,MATCH(MesDataInUnity!H$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I22" s="8">
-        <f>_xlfn.IFNA(VLOOKUP($A22,MesData!$A:$J,MATCH(MesDataInUnity!I$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -1800,7 +1844,6 @@
         <v>10207</v>
       </c>
       <c r="B23" s="8">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C23" s="8">
@@ -1810,23 +1853,18 @@
         <v>2</v>
       </c>
       <c r="E23" s="8">
-        <f>_xlfn.IFNA(VLOOKUP($A23,MesData!$A:$J,MATCH(MesDataInUnity!E$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="F23" s="8">
-        <f>_xlfn.IFNA(VLOOKUP($A23,MesData!$A:$J,MATCH(MesDataInUnity!F$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G23" s="8">
-        <f>_xlfn.IFNA(VLOOKUP($A23,MesData!$A:$J,MATCH(MesDataInUnity!G$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H23" s="8">
-        <f>_xlfn.IFNA(VLOOKUP($A23,MesData!$A:$J,MATCH(MesDataInUnity!H$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I23" s="8">
-        <f>_xlfn.IFNA(VLOOKUP($A23,MesData!$A:$J,MATCH(MesDataInUnity!I$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -1835,7 +1873,6 @@
         <v>10208</v>
       </c>
       <c r="B24" s="8">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C24" s="8">
@@ -1845,23 +1882,18 @@
         <v>3</v>
       </c>
       <c r="E24" s="8">
-        <f>_xlfn.IFNA(VLOOKUP($A24,MesData!$A:$J,MATCH(MesDataInUnity!E$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="F24" s="8">
-        <f>_xlfn.IFNA(VLOOKUP($A24,MesData!$A:$J,MATCH(MesDataInUnity!F$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G24" s="8">
-        <f>_xlfn.IFNA(VLOOKUP($A24,MesData!$A:$J,MATCH(MesDataInUnity!G$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H24" s="8">
-        <f>_xlfn.IFNA(VLOOKUP($A24,MesData!$A:$J,MATCH(MesDataInUnity!H$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I24" s="8">
-        <f>_xlfn.IFNA(VLOOKUP($A24,MesData!$A:$J,MATCH(MesDataInUnity!I$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -1870,7 +1902,6 @@
         <v>10209</v>
       </c>
       <c r="B25" s="8">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C25" s="8">
@@ -1880,23 +1911,18 @@
         <v>4</v>
       </c>
       <c r="E25" s="8">
-        <f>_xlfn.IFNA(VLOOKUP($A25,MesData!$A:$J,MATCH(MesDataInUnity!E$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="F25" s="8">
-        <f>_xlfn.IFNA(VLOOKUP($A25,MesData!$A:$J,MATCH(MesDataInUnity!F$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G25" s="8">
-        <f>_xlfn.IFNA(VLOOKUP($A25,MesData!$A:$J,MATCH(MesDataInUnity!G$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H25" s="8">
-        <f>_xlfn.IFNA(VLOOKUP($A25,MesData!$A:$J,MATCH(MesDataInUnity!H$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I25" s="8">
-        <f>_xlfn.IFNA(VLOOKUP($A25,MesData!$A:$J,MATCH(MesDataInUnity!I$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -1904,9 +1930,8 @@
       <c r="A26" s="8">
         <v>10301</v>
       </c>
-      <c r="B26" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>暫停</v>
+      <c r="B26" s="8" t="s">
+        <v>155</v>
       </c>
       <c r="C26" s="8">
         <v>103</v>
@@ -1914,25 +1939,20 @@
       <c r="D26" s="9">
         <v>1</v>
       </c>
-      <c r="E26" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A26,MesData!$A:$J,MATCH(MesDataInUnity!E$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>暫停</v>
-      </c>
-      <c r="F26" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A26,MesData!$A:$J,MATCH(MesDataInUnity!F$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>暫停</v>
-      </c>
-      <c r="G26" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A26,MesData!$A:$J,MATCH(MesDataInUnity!G$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>Pasue</v>
-      </c>
-      <c r="H26" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A26,MesData!$A:$J,MATCH(MesDataInUnity!H$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>Pasue</v>
-      </c>
-      <c r="I26" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A26,MesData!$A:$J,MATCH(MesDataInUnity!I$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>Pasue</v>
+      <c r="E26" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -1940,7 +1960,6 @@
         <v>10302</v>
       </c>
       <c r="B27" s="8">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C27" s="8">
@@ -1950,23 +1969,18 @@
         <v>2</v>
       </c>
       <c r="E27" s="8">
-        <f>_xlfn.IFNA(VLOOKUP($A27,MesData!$A:$J,MATCH(MesDataInUnity!E$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="F27" s="8">
-        <f>_xlfn.IFNA(VLOOKUP($A27,MesData!$A:$J,MATCH(MesDataInUnity!F$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G27" s="8">
-        <f>_xlfn.IFNA(VLOOKUP($A27,MesData!$A:$J,MATCH(MesDataInUnity!G$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H27" s="8">
-        <f>_xlfn.IFNA(VLOOKUP($A27,MesData!$A:$J,MATCH(MesDataInUnity!H$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I27" s="8">
-        <f>_xlfn.IFNA(VLOOKUP($A27,MesData!$A:$J,MATCH(MesDataInUnity!I$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -1975,7 +1989,6 @@
         <v>10303</v>
       </c>
       <c r="B28" s="8">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C28" s="8">
@@ -1985,23 +1998,18 @@
         <v>3</v>
       </c>
       <c r="E28" s="8">
-        <f>_xlfn.IFNA(VLOOKUP($A28,MesData!$A:$J,MATCH(MesDataInUnity!E$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="F28" s="8">
-        <f>_xlfn.IFNA(VLOOKUP($A28,MesData!$A:$J,MATCH(MesDataInUnity!F$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G28" s="8">
-        <f>_xlfn.IFNA(VLOOKUP($A28,MesData!$A:$J,MATCH(MesDataInUnity!G$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H28" s="8">
-        <f>_xlfn.IFNA(VLOOKUP($A28,MesData!$A:$J,MATCH(MesDataInUnity!H$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I28" s="8">
-        <f>_xlfn.IFNA(VLOOKUP($A28,MesData!$A:$J,MATCH(MesDataInUnity!I$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2010,7 +2018,6 @@
         <v>10304</v>
       </c>
       <c r="B29" s="8">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C29" s="8">
@@ -2020,23 +2027,18 @@
         <v>4</v>
       </c>
       <c r="E29" s="8">
-        <f>_xlfn.IFNA(VLOOKUP($A29,MesData!$A:$J,MATCH(MesDataInUnity!E$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="F29" s="8">
-        <f>_xlfn.IFNA(VLOOKUP($A29,MesData!$A:$J,MATCH(MesDataInUnity!F$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G29" s="8">
-        <f>_xlfn.IFNA(VLOOKUP($A29,MesData!$A:$J,MATCH(MesDataInUnity!G$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H29" s="8">
-        <f>_xlfn.IFNA(VLOOKUP($A29,MesData!$A:$J,MATCH(MesDataInUnity!H$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I29" s="8">
-        <f>_xlfn.IFNA(VLOOKUP($A29,MesData!$A:$J,MATCH(MesDataInUnity!I$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2045,7 +2047,6 @@
         <v>10305</v>
       </c>
       <c r="B30" s="8">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C30" s="8">
@@ -2055,23 +2056,18 @@
         <v>5</v>
       </c>
       <c r="E30" s="8">
-        <f>_xlfn.IFNA(VLOOKUP($A30,MesData!$A:$J,MATCH(MesDataInUnity!E$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="F30" s="8">
-        <f>_xlfn.IFNA(VLOOKUP($A30,MesData!$A:$J,MATCH(MesDataInUnity!F$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G30" s="8">
-        <f>_xlfn.IFNA(VLOOKUP($A30,MesData!$A:$J,MATCH(MesDataInUnity!G$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H30" s="8">
-        <f>_xlfn.IFNA(VLOOKUP($A30,MesData!$A:$J,MATCH(MesDataInUnity!H$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I30" s="8">
-        <f>_xlfn.IFNA(VLOOKUP($A30,MesData!$A:$J,MATCH(MesDataInUnity!I$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2080,7 +2076,6 @@
         <v>10306</v>
       </c>
       <c r="B31" s="8">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C31" s="8">
@@ -2090,23 +2085,18 @@
         <v>6</v>
       </c>
       <c r="E31" s="8">
-        <f>_xlfn.IFNA(VLOOKUP($A31,MesData!$A:$J,MATCH(MesDataInUnity!E$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="F31" s="8">
-        <f>_xlfn.IFNA(VLOOKUP($A31,MesData!$A:$J,MATCH(MesDataInUnity!F$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G31" s="8">
-        <f>_xlfn.IFNA(VLOOKUP($A31,MesData!$A:$J,MATCH(MesDataInUnity!G$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H31" s="8">
-        <f>_xlfn.IFNA(VLOOKUP($A31,MesData!$A:$J,MATCH(MesDataInUnity!H$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I31" s="8">
-        <f>_xlfn.IFNA(VLOOKUP($A31,MesData!$A:$J,MATCH(MesDataInUnity!I$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2114,9 +2104,8 @@
       <c r="A32" s="8">
         <v>20101</v>
       </c>
-      <c r="B32" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>血量</v>
+      <c r="B32" s="8" t="s">
+        <v>157</v>
       </c>
       <c r="C32" s="8">
         <v>105</v>
@@ -2124,34 +2113,28 @@
       <c r="D32" s="9">
         <v>1</v>
       </c>
-      <c r="E32" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A32,MesData!$A:$J,MATCH(MesDataInUnity!E$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>血量</v>
-      </c>
-      <c r="F32" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A32,MesData!$A:$J,MATCH(MesDataInUnity!F$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>血量</v>
-      </c>
-      <c r="G32" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A32,MesData!$A:$J,MATCH(MesDataInUnity!G$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>血量</v>
-      </c>
-      <c r="H32" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A32,MesData!$A:$J,MATCH(MesDataInUnity!H$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>血量</v>
-      </c>
-      <c r="I32" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A32,MesData!$A:$J,MATCH(MesDataInUnity!I$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>血量</v>
+      <c r="E32" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>20102</v>
       </c>
-      <c r="B33" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>預設武器</v>
+      <c r="B33" s="8" t="s">
+        <v>158</v>
       </c>
       <c r="C33" s="8">
         <v>105</v>
@@ -2159,34 +2142,28 @@
       <c r="D33" s="9">
         <v>2</v>
       </c>
-      <c r="E33" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A33,MesData!$A:$J,MATCH(MesDataInUnity!E$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>預設武器</v>
-      </c>
-      <c r="F33" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A33,MesData!$A:$J,MATCH(MesDataInUnity!F$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>預設武器</v>
-      </c>
-      <c r="G33" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A33,MesData!$A:$J,MATCH(MesDataInUnity!G$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>預設武器</v>
-      </c>
-      <c r="H33" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A33,MesData!$A:$J,MATCH(MesDataInUnity!H$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>預設武器</v>
-      </c>
-      <c r="I33" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A33,MesData!$A:$J,MATCH(MesDataInUnity!I$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>預設武器</v>
+      <c r="E33" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>20103</v>
       </c>
-      <c r="B34" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>再生</v>
+      <c r="B34" s="8" t="s">
+        <v>159</v>
       </c>
       <c r="C34" s="8">
         <v>105</v>
@@ -2194,34 +2171,28 @@
       <c r="D34" s="9">
         <v>3</v>
       </c>
-      <c r="E34" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A34,MesData!$A:$J,MATCH(MesDataInUnity!E$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>再生</v>
-      </c>
-      <c r="F34" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A34,MesData!$A:$J,MATCH(MesDataInUnity!F$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>再生</v>
-      </c>
-      <c r="G34" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A34,MesData!$A:$J,MATCH(MesDataInUnity!G$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>再生</v>
-      </c>
-      <c r="H34" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A34,MesData!$A:$J,MATCH(MesDataInUnity!H$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>再生</v>
-      </c>
-      <c r="I34" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A34,MesData!$A:$J,MATCH(MesDataInUnity!I$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>再生</v>
+      <c r="E34" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>20104</v>
       </c>
-      <c r="B35" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>再生頻率</v>
+      <c r="B35" s="8" t="s">
+        <v>160</v>
       </c>
       <c r="C35" s="8">
         <v>105</v>
@@ -2229,34 +2200,28 @@
       <c r="D35" s="9">
         <v>4</v>
       </c>
-      <c r="E35" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A35,MesData!$A:$J,MATCH(MesDataInUnity!E$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>再生頻率</v>
-      </c>
-      <c r="F35" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A35,MesData!$A:$J,MATCH(MesDataInUnity!F$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>再生頻率</v>
-      </c>
-      <c r="G35" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A35,MesData!$A:$J,MATCH(MesDataInUnity!G$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>再生頻率</v>
-      </c>
-      <c r="H35" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A35,MesData!$A:$J,MATCH(MesDataInUnity!H$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>再生頻率</v>
-      </c>
-      <c r="I35" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A35,MesData!$A:$J,MATCH(MesDataInUnity!I$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>再生頻率</v>
+      <c r="E35" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <v>20105</v>
       </c>
-      <c r="B36" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>力量</v>
+      <c r="B36" s="8" t="s">
+        <v>161</v>
       </c>
       <c r="C36" s="8">
         <v>110</v>
@@ -2264,34 +2229,28 @@
       <c r="D36" s="9">
         <v>1</v>
       </c>
-      <c r="E36" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A36,MesData!$A:$J,MATCH(MesDataInUnity!E$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>力量</v>
-      </c>
-      <c r="F36" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A36,MesData!$A:$J,MATCH(MesDataInUnity!F$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>力量</v>
-      </c>
-      <c r="G36" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A36,MesData!$A:$J,MATCH(MesDataInUnity!G$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>力量</v>
-      </c>
-      <c r="H36" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A36,MesData!$A:$J,MATCH(MesDataInUnity!H$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>力量</v>
-      </c>
-      <c r="I36" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A36,MesData!$A:$J,MATCH(MesDataInUnity!I$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>力量</v>
+      <c r="E36" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>20106</v>
       </c>
-      <c r="B37" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>輕型武器攻擊倍率</v>
+      <c r="B37" s="8" t="s">
+        <v>162</v>
       </c>
       <c r="C37" s="8">
         <v>110</v>
@@ -2299,34 +2258,28 @@
       <c r="D37" s="9">
         <v>2</v>
       </c>
-      <c r="E37" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A37,MesData!$A:$J,MATCH(MesDataInUnity!E$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>輕型武器攻擊倍率</v>
-      </c>
-      <c r="F37" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A37,MesData!$A:$J,MATCH(MesDataInUnity!F$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>輕型武器攻擊倍率</v>
-      </c>
-      <c r="G37" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A37,MesData!$A:$J,MATCH(MesDataInUnity!G$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>輕型武器攻擊倍率</v>
-      </c>
-      <c r="H37" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A37,MesData!$A:$J,MATCH(MesDataInUnity!H$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>輕型武器攻擊倍率</v>
-      </c>
-      <c r="I37" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A37,MesData!$A:$J,MATCH(MesDataInUnity!I$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>輕型武器攻擊倍率</v>
+      <c r="E37" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
         <v>20107</v>
       </c>
-      <c r="B38" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>中型武器攻擊倍率</v>
+      <c r="B38" s="8" t="s">
+        <v>163</v>
       </c>
       <c r="C38" s="8">
         <v>110</v>
@@ -2334,34 +2287,28 @@
       <c r="D38" s="9">
         <v>3</v>
       </c>
-      <c r="E38" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A38,MesData!$A:$J,MATCH(MesDataInUnity!E$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>中型武器攻擊倍率</v>
-      </c>
-      <c r="F38" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A38,MesData!$A:$J,MATCH(MesDataInUnity!F$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>中型武器攻擊倍率</v>
-      </c>
-      <c r="G38" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A38,MesData!$A:$J,MATCH(MesDataInUnity!G$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>中型武器攻擊倍率</v>
-      </c>
-      <c r="H38" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A38,MesData!$A:$J,MATCH(MesDataInUnity!H$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>中型武器攻擊倍率</v>
-      </c>
-      <c r="I38" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A38,MesData!$A:$J,MATCH(MesDataInUnity!I$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>中型武器攻擊倍率</v>
+      <c r="E38" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
         <v>20108</v>
       </c>
-      <c r="B39" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>重型武器攻擊倍率</v>
+      <c r="B39" s="8" t="s">
+        <v>164</v>
       </c>
       <c r="C39" s="8">
         <v>110</v>
@@ -2369,225 +2316,1180 @@
       <c r="D39" s="9">
         <v>4</v>
       </c>
-      <c r="E39" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A39,MesData!$A:$J,MATCH(MesDataInUnity!E$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>重型武器攻擊倍率</v>
-      </c>
-      <c r="F39" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A39,MesData!$A:$J,MATCH(MesDataInUnity!F$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>重型武器攻擊倍率</v>
-      </c>
-      <c r="G39" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A39,MesData!$A:$J,MATCH(MesDataInUnity!G$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>重型武器攻擊倍率</v>
-      </c>
-      <c r="H39" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A39,MesData!$A:$J,MATCH(MesDataInUnity!H$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>重型武器攻擊倍率</v>
-      </c>
-      <c r="I39" s="8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A39,MesData!$A:$J,MATCH(MesDataInUnity!I$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
-        <v>重型武器攻擊倍率</v>
+      <c r="E39" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
         <v>20109</v>
       </c>
+      <c r="B40" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="C40" s="8">
+        <v>110</v>
+      </c>
+      <c r="D40" s="9">
+        <v>4</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
         <v>20110</v>
       </c>
+      <c r="B41" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C41" s="8">
+        <v>110</v>
+      </c>
+      <c r="D41" s="9">
+        <v>4</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
         <v>20111</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="C42" s="8">
+        <v>110</v>
+      </c>
+      <c r="D42" s="9">
+        <v>4</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
         <v>20112</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C43" s="8">
+        <v>110</v>
+      </c>
+      <c r="D43" s="9">
+        <v>4</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="I43" s="8" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
         <v>20113</v>
       </c>
+      <c r="B44" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C44" s="8">
+        <v>110</v>
+      </c>
+      <c r="D44" s="9">
+        <v>4</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
         <v>20114</v>
       </c>
+      <c r="B45" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C45" s="8">
+        <v>110</v>
+      </c>
+      <c r="D45" s="9">
+        <v>4</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
         <v>20115</v>
       </c>
+      <c r="B46" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C46" s="8">
+        <v>110</v>
+      </c>
+      <c r="D46" s="9">
+        <v>4</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="I46" s="8" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
         <v>20116</v>
       </c>
+      <c r="B47" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="C47" s="8">
+        <v>110</v>
+      </c>
+      <c r="D47" s="9">
+        <v>4</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="H47" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="I47" s="8" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="8">
         <v>20201</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B48" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C48" s="8">
+        <v>110</v>
+      </c>
+      <c r="D48" s="9">
+        <v>4</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="H48" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="I48" s="8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="8">
         <v>20202</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B49" s="8">
+        <v>0</v>
+      </c>
+      <c r="C49" s="8">
+        <v>110</v>
+      </c>
+      <c r="D49" s="9">
+        <v>4</v>
+      </c>
+      <c r="E49" s="8">
+        <v>0</v>
+      </c>
+      <c r="F49" s="8">
+        <v>0</v>
+      </c>
+      <c r="G49" s="8">
+        <v>0</v>
+      </c>
+      <c r="H49" s="8">
+        <v>0</v>
+      </c>
+      <c r="I49" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="8">
         <v>20203</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B50" s="8">
+        <v>0</v>
+      </c>
+      <c r="C50" s="8">
+        <v>110</v>
+      </c>
+      <c r="D50" s="9">
+        <v>4</v>
+      </c>
+      <c r="E50" s="8">
+        <v>0</v>
+      </c>
+      <c r="F50" s="8">
+        <v>0</v>
+      </c>
+      <c r="G50" s="8">
+        <v>0</v>
+      </c>
+      <c r="H50" s="8">
+        <v>0</v>
+      </c>
+      <c r="I50" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="8">
         <v>20204</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B51" s="8">
+        <v>0</v>
+      </c>
+      <c r="C51" s="8">
+        <v>110</v>
+      </c>
+      <c r="D51" s="9">
+        <v>4</v>
+      </c>
+      <c r="E51" s="8">
+        <v>0</v>
+      </c>
+      <c r="F51" s="8">
+        <v>0</v>
+      </c>
+      <c r="G51" s="8">
+        <v>0</v>
+      </c>
+      <c r="H51" s="8">
+        <v>0</v>
+      </c>
+      <c r="I51" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="8">
         <v>20205</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B52" s="8">
+        <v>0</v>
+      </c>
+      <c r="C52" s="8">
+        <v>110</v>
+      </c>
+      <c r="D52" s="9">
+        <v>4</v>
+      </c>
+      <c r="E52" s="8">
+        <v>0</v>
+      </c>
+      <c r="F52" s="8">
+        <v>0</v>
+      </c>
+      <c r="G52" s="8">
+        <v>0</v>
+      </c>
+      <c r="H52" s="8">
+        <v>0</v>
+      </c>
+      <c r="I52" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="8">
         <v>20206</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B53" s="8">
+        <v>0</v>
+      </c>
+      <c r="C53" s="8">
+        <v>110</v>
+      </c>
+      <c r="D53" s="9">
+        <v>4</v>
+      </c>
+      <c r="E53" s="8">
+        <v>0</v>
+      </c>
+      <c r="F53" s="8">
+        <v>0</v>
+      </c>
+      <c r="G53" s="8">
+        <v>0</v>
+      </c>
+      <c r="H53" s="8">
+        <v>0</v>
+      </c>
+      <c r="I53" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="8">
         <v>20301</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B54" s="8">
+        <v>0</v>
+      </c>
+      <c r="C54" s="8">
+        <v>110</v>
+      </c>
+      <c r="D54" s="9">
+        <v>4</v>
+      </c>
+      <c r="E54" s="8">
+        <v>0</v>
+      </c>
+      <c r="F54" s="8">
+        <v>0</v>
+      </c>
+      <c r="G54" s="8">
+        <v>0</v>
+      </c>
+      <c r="H54" s="8">
+        <v>0</v>
+      </c>
+      <c r="I54" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="8">
         <v>20302</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B55" s="8">
+        <v>0</v>
+      </c>
+      <c r="C55" s="8">
+        <v>110</v>
+      </c>
+      <c r="D55" s="9">
+        <v>4</v>
+      </c>
+      <c r="E55" s="8">
+        <v>0</v>
+      </c>
+      <c r="F55" s="8">
+        <v>0</v>
+      </c>
+      <c r="G55" s="8">
+        <v>0</v>
+      </c>
+      <c r="H55" s="8">
+        <v>0</v>
+      </c>
+      <c r="I55" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="8">
         <v>20303</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B56" s="8">
+        <v>0</v>
+      </c>
+      <c r="C56" s="8">
+        <v>110</v>
+      </c>
+      <c r="D56" s="9">
+        <v>4</v>
+      </c>
+      <c r="E56" s="8">
+        <v>0</v>
+      </c>
+      <c r="F56" s="8">
+        <v>0</v>
+      </c>
+      <c r="G56" s="8">
+        <v>0</v>
+      </c>
+      <c r="H56" s="8">
+        <v>0</v>
+      </c>
+      <c r="I56" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="8">
         <v>30101</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B57" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C57" s="8">
+        <v>110</v>
+      </c>
+      <c r="D57" s="9">
+        <v>4</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="F57" s="8">
+        <v>0</v>
+      </c>
+      <c r="G57" s="8">
+        <v>0</v>
+      </c>
+      <c r="H57" s="8">
+        <v>0</v>
+      </c>
+      <c r="I57" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="8">
         <v>30102</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B58" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C58" s="8">
+        <v>110</v>
+      </c>
+      <c r="D58" s="9">
+        <v>4</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="F58" s="8">
+        <v>0</v>
+      </c>
+      <c r="G58" s="8">
+        <v>0</v>
+      </c>
+      <c r="H58" s="8">
+        <v>0</v>
+      </c>
+      <c r="I58" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="8">
         <v>30103</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B59" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C59" s="8">
+        <v>110</v>
+      </c>
+      <c r="D59" s="9">
+        <v>4</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="F59" s="8">
+        <v>0</v>
+      </c>
+      <c r="G59" s="8">
+        <v>0</v>
+      </c>
+      <c r="H59" s="8">
+        <v>0</v>
+      </c>
+      <c r="I59" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="8">
         <v>30104</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B60" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C60" s="8">
+        <v>110</v>
+      </c>
+      <c r="D60" s="9">
+        <v>4</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="F60" s="8">
+        <v>0</v>
+      </c>
+      <c r="G60" s="8">
+        <v>0</v>
+      </c>
+      <c r="H60" s="8">
+        <v>0</v>
+      </c>
+      <c r="I60" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="8">
         <v>30105</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B61" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="C61" s="8">
+        <v>110</v>
+      </c>
+      <c r="D61" s="9">
+        <v>4</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="F61" s="8">
+        <v>0</v>
+      </c>
+      <c r="G61" s="8">
+        <v>0</v>
+      </c>
+      <c r="H61" s="8">
+        <v>0</v>
+      </c>
+      <c r="I61" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="8">
         <v>30106</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B62" s="8">
+        <v>0</v>
+      </c>
+      <c r="C62" s="8">
+        <v>110</v>
+      </c>
+      <c r="D62" s="9">
+        <v>4</v>
+      </c>
+      <c r="E62" s="8">
+        <v>0</v>
+      </c>
+      <c r="F62" s="8">
+        <v>0</v>
+      </c>
+      <c r="G62" s="8">
+        <v>0</v>
+      </c>
+      <c r="H62" s="8">
+        <v>0</v>
+      </c>
+      <c r="I62" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="8">
         <v>30201</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B63" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="C63" s="8">
+        <v>110</v>
+      </c>
+      <c r="D63" s="9">
+        <v>4</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="F63" s="8">
+        <v>0</v>
+      </c>
+      <c r="G63" s="8">
+        <v>0</v>
+      </c>
+      <c r="H63" s="8">
+        <v>0</v>
+      </c>
+      <c r="I63" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="8">
         <v>30202</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B64" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="C64" s="8">
+        <v>110</v>
+      </c>
+      <c r="D64" s="9">
+        <v>4</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="F64" s="8">
+        <v>0</v>
+      </c>
+      <c r="G64" s="8">
+        <v>0</v>
+      </c>
+      <c r="H64" s="8">
+        <v>0</v>
+      </c>
+      <c r="I64" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="8">
         <v>30203</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B65" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C65" s="8">
+        <v>110</v>
+      </c>
+      <c r="D65" s="9">
+        <v>4</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="F65" s="8">
+        <v>0</v>
+      </c>
+      <c r="G65" s="8">
+        <v>0</v>
+      </c>
+      <c r="H65" s="8">
+        <v>0</v>
+      </c>
+      <c r="I65" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="8">
         <v>30204</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B66" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="C66" s="8">
+        <v>110</v>
+      </c>
+      <c r="D66" s="9">
+        <v>4</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="F66" s="8">
+        <v>0</v>
+      </c>
+      <c r="G66" s="8">
+        <v>0</v>
+      </c>
+      <c r="H66" s="8">
+        <v>0</v>
+      </c>
+      <c r="I66" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="8">
         <v>30205</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B67" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C67" s="8">
+        <v>110</v>
+      </c>
+      <c r="D67" s="9">
+        <v>4</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="F67" s="8">
+        <v>0</v>
+      </c>
+      <c r="G67" s="8">
+        <v>0</v>
+      </c>
+      <c r="H67" s="8">
+        <v>0</v>
+      </c>
+      <c r="I67" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="8">
         <v>30301</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B68" s="8">
+        <v>0</v>
+      </c>
+      <c r="C68" s="8">
+        <v>110</v>
+      </c>
+      <c r="D68" s="9">
+        <v>4</v>
+      </c>
+      <c r="E68" s="8">
+        <v>0</v>
+      </c>
+      <c r="F68" s="8">
+        <v>0</v>
+      </c>
+      <c r="G68" s="8">
+        <v>0</v>
+      </c>
+      <c r="H68" s="8">
+        <v>0</v>
+      </c>
+      <c r="I68" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="8">
         <v>30302</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B69" s="8">
+        <v>0</v>
+      </c>
+      <c r="C69" s="8">
+        <v>110</v>
+      </c>
+      <c r="D69" s="9">
+        <v>4</v>
+      </c>
+      <c r="E69" s="8">
+        <v>0</v>
+      </c>
+      <c r="F69" s="8">
+        <v>0</v>
+      </c>
+      <c r="G69" s="8">
+        <v>0</v>
+      </c>
+      <c r="H69" s="8">
+        <v>0</v>
+      </c>
+      <c r="I69" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="8">
         <v>30303</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B70" s="8">
+        <v>0</v>
+      </c>
+      <c r="C70" s="8">
+        <v>110</v>
+      </c>
+      <c r="D70" s="9">
+        <v>4</v>
+      </c>
+      <c r="E70" s="8">
+        <v>0</v>
+      </c>
+      <c r="F70" s="8">
+        <v>0</v>
+      </c>
+      <c r="G70" s="8">
+        <v>0</v>
+      </c>
+      <c r="H70" s="8">
+        <v>0</v>
+      </c>
+      <c r="I70" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="8">
         <v>30304</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B71" s="8">
+        <v>0</v>
+      </c>
+      <c r="C71" s="8">
+        <v>110</v>
+      </c>
+      <c r="D71" s="9">
+        <v>4</v>
+      </c>
+      <c r="E71" s="8">
+        <v>0</v>
+      </c>
+      <c r="F71" s="8">
+        <v>0</v>
+      </c>
+      <c r="G71" s="8">
+        <v>0</v>
+      </c>
+      <c r="H71" s="8">
+        <v>0</v>
+      </c>
+      <c r="I71" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="8">
         <v>30305</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B72" s="8">
+        <v>0</v>
+      </c>
+      <c r="C72" s="8">
+        <v>110</v>
+      </c>
+      <c r="D72" s="9">
+        <v>4</v>
+      </c>
+      <c r="E72" s="8">
+        <v>0</v>
+      </c>
+      <c r="F72" s="8">
+        <v>0</v>
+      </c>
+      <c r="G72" s="8">
+        <v>0</v>
+      </c>
+      <c r="H72" s="8">
+        <v>0</v>
+      </c>
+      <c r="I72" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="8">
         <v>30306</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B73" s="8">
+        <v>0</v>
+      </c>
+      <c r="C73" s="8">
+        <v>110</v>
+      </c>
+      <c r="D73" s="9">
+        <v>4</v>
+      </c>
+      <c r="E73" s="8">
+        <v>0</v>
+      </c>
+      <c r="F73" s="8">
+        <v>0</v>
+      </c>
+      <c r="G73" s="8">
+        <v>0</v>
+      </c>
+      <c r="H73" s="8">
+        <v>0</v>
+      </c>
+      <c r="I73" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="8">
         <v>40101</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B74" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C74" s="8">
+        <v>110</v>
+      </c>
+      <c r="D74" s="9">
+        <v>4</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="F74" s="8">
+        <v>0</v>
+      </c>
+      <c r="G74" s="8">
+        <v>0</v>
+      </c>
+      <c r="H74" s="8">
+        <v>0</v>
+      </c>
+      <c r="I74" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="8">
         <v>40102</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B75" s="8">
+        <v>0</v>
+      </c>
+      <c r="C75" s="8">
+        <v>110</v>
+      </c>
+      <c r="D75" s="9">
+        <v>4</v>
+      </c>
+      <c r="E75" s="8">
+        <v>0</v>
+      </c>
+      <c r="F75" s="8">
+        <v>0</v>
+      </c>
+      <c r="G75" s="8">
+        <v>0</v>
+      </c>
+      <c r="H75" s="8">
+        <v>0</v>
+      </c>
+      <c r="I75" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="8">
         <v>40103</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B76" s="8">
+        <v>0</v>
+      </c>
+      <c r="C76" s="8">
+        <v>110</v>
+      </c>
+      <c r="D76" s="9">
+        <v>4</v>
+      </c>
+      <c r="E76" s="8">
+        <v>0</v>
+      </c>
+      <c r="F76" s="8">
+        <v>0</v>
+      </c>
+      <c r="G76" s="8">
+        <v>0</v>
+      </c>
+      <c r="H76" s="8">
+        <v>0</v>
+      </c>
+      <c r="I76" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="8">
         <v>40104</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B77" s="8">
+        <v>0</v>
+      </c>
+      <c r="C77" s="8">
+        <v>110</v>
+      </c>
+      <c r="D77" s="9">
+        <v>4</v>
+      </c>
+      <c r="E77" s="8">
+        <v>0</v>
+      </c>
+      <c r="F77" s="8">
+        <v>0</v>
+      </c>
+      <c r="G77" s="8">
+        <v>0</v>
+      </c>
+      <c r="H77" s="8">
+        <v>0</v>
+      </c>
+      <c r="I77" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="8">
         <v>40105</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B78" s="8">
+        <v>0</v>
+      </c>
+      <c r="C78" s="8">
+        <v>110</v>
+      </c>
+      <c r="D78" s="9">
+        <v>4</v>
+      </c>
+      <c r="E78" s="8">
+        <v>0</v>
+      </c>
+      <c r="F78" s="8">
+        <v>0</v>
+      </c>
+      <c r="G78" s="8">
+        <v>0</v>
+      </c>
+      <c r="H78" s="8">
+        <v>0</v>
+      </c>
+      <c r="I78" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="8">
         <v>40106</v>
+      </c>
+      <c r="B79" s="8">
+        <v>0</v>
+      </c>
+      <c r="C79" s="8">
+        <v>110</v>
+      </c>
+      <c r="D79" s="9">
+        <v>4</v>
+      </c>
+      <c r="E79" s="8">
+        <v>0</v>
+      </c>
+      <c r="F79" s="8">
+        <v>0</v>
+      </c>
+      <c r="G79" s="8">
+        <v>0</v>
+      </c>
+      <c r="H79" s="8">
+        <v>0</v>
+      </c>
+      <c r="I79" s="8">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2604,8 +3506,8 @@
   </sheetPr>
   <dimension ref="A1:J122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="F79" sqref="F79"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16" defaultRowHeight="13.5" outlineLevelRow="1" x14ac:dyDescent="0.25"/>

--- a/Assets/Excel/001_String.xlsx
+++ b/Assets/Excel/001_String.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="233">
   <si>
     <t>int</t>
   </si>
@@ -501,153 +501,244 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>替換</t>
+  </si>
+  <si>
+    <t>回到主選單</t>
+  </si>
+  <si>
+    <t>繼續</t>
+  </si>
+  <si>
+    <t>開始遊戲</t>
+  </si>
+  <si>
+    <t>排行榜</t>
+  </si>
+  <si>
+    <t>設定</t>
+  </si>
+  <si>
+    <t>離開遊戲</t>
+  </si>
+  <si>
+    <t>角色切換</t>
+  </si>
+  <si>
+    <t>武器切換</t>
+  </si>
+  <si>
+    <t>開發設備</t>
+  </si>
+  <si>
+    <t>出任務</t>
+  </si>
+  <si>
+    <t>主音量</t>
+  </si>
+  <si>
+    <t>音樂</t>
+  </si>
+  <si>
+    <t>音效</t>
+  </si>
+  <si>
+    <t>暫停</t>
+  </si>
+  <si>
+    <t>血量</t>
+  </si>
+  <si>
+    <t>預設武器</t>
+  </si>
+  <si>
+    <t>再生</t>
+  </si>
+  <si>
+    <t>再生頻率</t>
+  </si>
+  <si>
+    <t>力量</t>
+  </si>
+  <si>
+    <t>輕型武器攻擊倍率</t>
+  </si>
+  <si>
+    <t>中型武器攻擊倍率</t>
+  </si>
+  <si>
+    <t>重型武器攻擊倍率</t>
+  </si>
+  <si>
+    <t>爆擊機率(%)</t>
+  </si>
+  <si>
+    <t>爆擊倍率</t>
+  </si>
+  <si>
+    <t>護盾值</t>
+  </si>
+  <si>
+    <t>偷取生命倍率</t>
+  </si>
+  <si>
+    <t>偷取生命值</t>
+  </si>
+  <si>
+    <t>迴避率(%)</t>
+  </si>
+  <si>
+    <t>技能冷卻(%)</t>
+  </si>
+  <si>
+    <t>運氣值</t>
+  </si>
+  <si>
+    <t>妹子</t>
+  </si>
+  <si>
+    <t>武器櫃</t>
+  </si>
+  <si>
+    <t>種類</t>
+  </si>
+  <si>
+    <t>火力</t>
+  </si>
+  <si>
+    <t>攻速</t>
+  </si>
+  <si>
+    <t>附加效果</t>
+  </si>
+  <si>
+    <t>技能飾品</t>
+  </si>
+  <si>
+    <t>這是一把手槍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>這是一把機槍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>這是一把狙擊槍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>這是一把散彈槍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>這是一把分裂槍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>這是一把拋射槍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>這是一把彈跳槍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BB槍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AA槍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC槍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DD槍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>輕便易攜，適合近距離防身和個人防護。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全自動火器，高火力壓制，適合戰場支援。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高精度遠距離步槍，配高倍率瞄準鏡。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>近距離多彈丸火器，適合狩獵和自衛。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>發射分裂彈，擊中後分裂多次攻擊。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>發射榴彈，適合遠距離攻擊和破壞掩體。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彈藥可反彈攻擊隱藏目標，適合複雜地形。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>發射塑料或金屬小球，主要用於娛樂和訓練。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>對空武器，快速瞄準射擊飛行目標。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>發射壓縮氣體或電磁脈衝，癱瘓電子設備。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雙管火器，同時發射兩枚彈藥，火力強大。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>預留</t>
   </si>
   <si>
-    <t>替換</t>
-  </si>
-  <si>
     <t>Change</t>
   </si>
   <si>
-    <t>回到主選單</t>
-  </si>
-  <si>
     <t>Back to Menu</t>
   </si>
   <si>
-    <t>繼續</t>
-  </si>
-  <si>
     <t>Resume</t>
   </si>
   <si>
-    <t>開始遊戲</t>
-  </si>
-  <si>
     <t>Start Game</t>
   </si>
   <si>
-    <t>排行榜</t>
-  </si>
-  <si>
     <t>LeaderBoard</t>
   </si>
   <si>
-    <t>設定</t>
-  </si>
-  <si>
     <t>Setting</t>
   </si>
   <si>
-    <t>離開遊戲</t>
-  </si>
-  <si>
     <t>Exit Game</t>
   </si>
   <si>
-    <t>角色切換</t>
-  </si>
-  <si>
-    <t>武器切換</t>
-  </si>
-  <si>
-    <t>開發設備</t>
-  </si>
-  <si>
-    <t>出任務</t>
-  </si>
-  <si>
-    <t>主音量</t>
-  </si>
-  <si>
     <t>Main Volume</t>
   </si>
   <si>
-    <t>音樂</t>
-  </si>
-  <si>
     <t>BGM</t>
   </si>
   <si>
-    <t>音效</t>
-  </si>
-  <si>
     <t>SE</t>
   </si>
   <si>
-    <t>暫停</t>
-  </si>
-  <si>
     <t>Pasue</t>
   </si>
   <si>
-    <t>血量</t>
-  </si>
-  <si>
-    <t>預設武器</t>
-  </si>
-  <si>
-    <t>再生</t>
-  </si>
-  <si>
-    <t>再生頻率</t>
-  </si>
-  <si>
-    <t>力量</t>
-  </si>
-  <si>
-    <t>輕型武器攻擊倍率</t>
-  </si>
-  <si>
-    <t>中型武器攻擊倍率</t>
-  </si>
-  <si>
-    <t>重型武器攻擊倍率</t>
-  </si>
-  <si>
-    <t>爆擊機率(%)</t>
-  </si>
-  <si>
-    <t>爆擊倍率</t>
-  </si>
-  <si>
-    <t>護盾值</t>
-  </si>
-  <si>
-    <t>偷取生命倍率</t>
-  </si>
-  <si>
-    <t>偷取生命值</t>
-  </si>
-  <si>
-    <t>迴避率(%)</t>
-  </si>
-  <si>
-    <t>技能冷卻(%)</t>
-  </si>
-  <si>
-    <t>運氣值</t>
-  </si>
-  <si>
-    <t>妹子</t>
-  </si>
-  <si>
-    <t>武器櫃</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>火力</t>
-  </si>
-  <si>
-    <t>攻速</t>
-  </si>
-  <si>
-    <t>附加效果</t>
-  </si>
-  <si>
     <t>手槍</t>
   </si>
   <si>
@@ -663,7 +754,82 @@
     <t>分裂槍</t>
   </si>
   <si>
-    <t>技能飾品</t>
+    <t>拋射槍</t>
+  </si>
+  <si>
+    <t>彈跳槍</t>
+  </si>
+  <si>
+    <t>BB槍</t>
+  </si>
+  <si>
+    <t>AA槍</t>
+  </si>
+  <si>
+    <t>CC槍</t>
+  </si>
+  <si>
+    <t>輕便易攜，適合近距離防身和個人防護。</t>
+  </si>
+  <si>
+    <t>全自動火器，高火力壓制，適合戰場支援。</t>
+  </si>
+  <si>
+    <t>高精度遠距離步槍，配高倍率瞄準鏡。</t>
+  </si>
+  <si>
+    <t>近距離多彈丸火器，適合狩獵和自衛。</t>
+  </si>
+  <si>
+    <t>發射分裂彈，擊中後分裂多次攻擊。</t>
+  </si>
+  <si>
+    <t>發射榴彈，適合遠距離攻擊和破壞掩體。</t>
+  </si>
+  <si>
+    <t>彈藥可反彈攻擊隱藏目標，適合複雜地形。</t>
+  </si>
+  <si>
+    <t>發射塑料或金屬小球，主要用於娛樂和訓練。</t>
+  </si>
+  <si>
+    <t>對空武器，快速瞄準射擊飛行目標。</t>
+  </si>
+  <si>
+    <t>發射壓縮氣體或電磁脈衝，癱瘓電子設備。</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>301</t>
+  </si>
+  <si>
+    <t>302</t>
+  </si>
+  <si>
+    <t>303</t>
+  </si>
+  <si>
+    <t>401</t>
   </si>
 </sst>
 </file>
@@ -1184,24 +1350,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I79"/>
+  <dimension ref="A1:I88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="J58" sqref="J58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.375" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="12.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -1237,8 +1403,8 @@
       <c r="B2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="8">
-        <v>100</v>
+      <c r="C2" s="8" t="s">
+        <v>222</v>
       </c>
       <c r="D2" s="9">
         <v>1</v>
@@ -1247,7 +1413,7 @@
         <v>19</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>130</v>
+        <v>190</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>20</v>
@@ -1266,8 +1432,8 @@
       <c r="B3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="8">
-        <v>100</v>
+      <c r="C3" s="8" t="s">
+        <v>222</v>
       </c>
       <c r="D3" s="9">
         <v>2</v>
@@ -1276,7 +1442,7 @@
         <v>22</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>130</v>
+        <v>190</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>23</v>
@@ -1293,28 +1459,28 @@
         <v>10003</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="C4" s="8">
-        <v>100</v>
+        <v>130</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>222</v>
       </c>
       <c r="D4" s="9">
         <v>3</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>132</v>
+        <v>191</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>132</v>
+        <v>191</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>132</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1322,28 +1488,28 @@
         <v>10004</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="C5" s="8">
-        <v>100</v>
+        <v>131</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>222</v>
       </c>
       <c r="D5" s="9">
         <v>4</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>134</v>
+        <v>192</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>134</v>
+        <v>192</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>134</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1351,28 +1517,28 @@
         <v>10005</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="C6" s="8">
-        <v>100</v>
+        <v>132</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>222</v>
       </c>
       <c r="D6" s="9">
         <v>5</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>136</v>
+        <v>193</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>136</v>
+        <v>193</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>136</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1382,8 +1548,8 @@
       <c r="B7" s="8">
         <v>0</v>
       </c>
-      <c r="C7" s="8">
-        <v>100</v>
+      <c r="C7" s="8" t="s">
+        <v>222</v>
       </c>
       <c r="D7" s="9">
         <v>6</v>
@@ -1411,8 +1577,8 @@
       <c r="B8" s="8">
         <v>0</v>
       </c>
-      <c r="C8" s="8">
-        <v>100</v>
+      <c r="C8" s="8" t="s">
+        <v>222</v>
       </c>
       <c r="D8" s="9">
         <v>7</v>
@@ -1438,28 +1604,28 @@
         <v>10101</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="C9" s="8">
-        <v>100</v>
+        <v>133</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>223</v>
       </c>
       <c r="D9" s="9">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>138</v>
+        <v>194</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>138</v>
+        <v>194</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>138</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1467,28 +1633,28 @@
         <v>10102</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="C10" s="8">
-        <v>100</v>
+        <v>134</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>223</v>
       </c>
       <c r="D10" s="9">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>140</v>
+        <v>195</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>140</v>
+        <v>195</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>140</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1496,28 +1662,28 @@
         <v>10103</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="C11" s="8">
-        <v>101</v>
+        <v>135</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>223</v>
       </c>
       <c r="D11" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>142</v>
+        <v>196</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>142</v>
+        <v>196</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>142</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1525,28 +1691,28 @@
         <v>10104</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="C12" s="8">
-        <v>101</v>
+        <v>136</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>223</v>
       </c>
       <c r="D12" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>144</v>
+        <v>197</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>144</v>
+        <v>197</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>144</v>
+        <v>197</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1554,28 +1720,28 @@
         <v>10105</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="C13" s="8">
-        <v>101</v>
+        <v>137</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>223</v>
       </c>
       <c r="D13" s="9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1583,28 +1749,28 @@
         <v>10106</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="C14" s="8">
-        <v>101</v>
+        <v>138</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>223</v>
       </c>
       <c r="D14" s="9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1612,28 +1778,28 @@
         <v>10107</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="C15" s="8">
-        <v>101</v>
+        <v>139</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>223</v>
       </c>
       <c r="D15" s="9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1641,28 +1807,28 @@
         <v>10108</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="C16" s="8">
-        <v>101</v>
+        <v>140</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>223</v>
       </c>
       <c r="D16" s="9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1670,28 +1836,28 @@
         <v>10201</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="C17" s="8">
-        <v>101</v>
+        <v>141</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>224</v>
       </c>
       <c r="D17" s="9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>150</v>
+        <v>198</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>150</v>
+        <v>198</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>150</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1699,28 +1865,28 @@
         <v>10202</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="C18" s="8">
-        <v>101</v>
+        <v>142</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>224</v>
       </c>
       <c r="D18" s="9">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>152</v>
+        <v>199</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>152</v>
+        <v>199</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>152</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1728,28 +1894,28 @@
         <v>10203</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="C19" s="8">
-        <v>101</v>
+        <v>143</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>224</v>
       </c>
       <c r="D19" s="9">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>154</v>
+        <v>200</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>154</v>
+        <v>200</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>154</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1759,11 +1925,11 @@
       <c r="B20" s="8">
         <v>0</v>
       </c>
-      <c r="C20" s="8">
-        <v>101</v>
+      <c r="C20" s="8" t="s">
+        <v>224</v>
       </c>
       <c r="D20" s="9">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E20" s="8">
         <v>0</v>
@@ -1788,11 +1954,11 @@
       <c r="B21" s="8">
         <v>0</v>
       </c>
-      <c r="C21" s="8">
-        <v>101</v>
+      <c r="C21" s="8" t="s">
+        <v>224</v>
       </c>
       <c r="D21" s="9">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E21" s="8">
         <v>0</v>
@@ -1817,11 +1983,11 @@
       <c r="B22" s="8">
         <v>0</v>
       </c>
-      <c r="C22" s="8">
-        <v>102</v>
+      <c r="C22" s="8" t="s">
+        <v>224</v>
       </c>
       <c r="D22" s="9">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E22" s="8">
         <v>0</v>
@@ -1846,11 +2012,11 @@
       <c r="B23" s="8">
         <v>0</v>
       </c>
-      <c r="C23" s="8">
-        <v>102</v>
+      <c r="C23" s="8" t="s">
+        <v>224</v>
       </c>
       <c r="D23" s="9">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E23" s="8">
         <v>0</v>
@@ -1875,11 +2041,11 @@
       <c r="B24" s="8">
         <v>0</v>
       </c>
-      <c r="C24" s="8">
-        <v>102</v>
+      <c r="C24" s="8" t="s">
+        <v>224</v>
       </c>
       <c r="D24" s="9">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E24" s="8">
         <v>0</v>
@@ -1904,11 +2070,11 @@
       <c r="B25" s="8">
         <v>0</v>
       </c>
-      <c r="C25" s="8">
-        <v>102</v>
+      <c r="C25" s="8" t="s">
+        <v>224</v>
       </c>
       <c r="D25" s="9">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E25" s="8">
         <v>0</v>
@@ -1931,28 +2097,28 @@
         <v>10301</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="C26" s="8">
-        <v>103</v>
+        <v>144</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>225</v>
       </c>
       <c r="D26" s="9">
         <v>1</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>156</v>
+        <v>201</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>156</v>
+        <v>201</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>156</v>
+        <v>201</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -1962,8 +2128,8 @@
       <c r="B27" s="8">
         <v>0</v>
       </c>
-      <c r="C27" s="8">
-        <v>103</v>
+      <c r="C27" s="8" t="s">
+        <v>225</v>
       </c>
       <c r="D27" s="9">
         <v>2</v>
@@ -1991,8 +2157,8 @@
       <c r="B28" s="8">
         <v>0</v>
       </c>
-      <c r="C28" s="8">
-        <v>103</v>
+      <c r="C28" s="8" t="s">
+        <v>225</v>
       </c>
       <c r="D28" s="9">
         <v>3</v>
@@ -2020,8 +2186,8 @@
       <c r="B29" s="8">
         <v>0</v>
       </c>
-      <c r="C29" s="8">
-        <v>103</v>
+      <c r="C29" s="8" t="s">
+        <v>225</v>
       </c>
       <c r="D29" s="9">
         <v>4</v>
@@ -2049,8 +2215,8 @@
       <c r="B30" s="8">
         <v>0</v>
       </c>
-      <c r="C30" s="8">
-        <v>103</v>
+      <c r="C30" s="8" t="s">
+        <v>225</v>
       </c>
       <c r="D30" s="9">
         <v>5</v>
@@ -2078,8 +2244,8 @@
       <c r="B31" s="8">
         <v>0</v>
       </c>
-      <c r="C31" s="8">
-        <v>103</v>
+      <c r="C31" s="8" t="s">
+        <v>225</v>
       </c>
       <c r="D31" s="9">
         <v>6</v>
@@ -2105,28 +2271,28 @@
         <v>20101</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C32" s="8">
-        <v>105</v>
+        <v>145</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>226</v>
       </c>
       <c r="D32" s="9">
         <v>1</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -2134,28 +2300,28 @@
         <v>20102</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="C33" s="8">
-        <v>105</v>
+        <v>146</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>226</v>
       </c>
       <c r="D33" s="9">
         <v>2</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -2163,28 +2329,28 @@
         <v>20103</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="C34" s="8">
-        <v>105</v>
+        <v>147</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>226</v>
       </c>
       <c r="D34" s="9">
         <v>3</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -2192,28 +2358,28 @@
         <v>20104</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="C35" s="8">
-        <v>105</v>
+        <v>148</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>226</v>
       </c>
       <c r="D35" s="9">
         <v>4</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -2221,28 +2387,28 @@
         <v>20105</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="C36" s="8">
-        <v>110</v>
+        <v>149</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>226</v>
       </c>
       <c r="D36" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="27" x14ac:dyDescent="0.25">
@@ -2250,28 +2416,28 @@
         <v>20106</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="C37" s="8">
-        <v>110</v>
+        <v>150</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>226</v>
       </c>
       <c r="D37" s="9">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="27" x14ac:dyDescent="0.25">
@@ -2279,28 +2445,28 @@
         <v>20107</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="C38" s="8">
-        <v>110</v>
+        <v>151</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>226</v>
       </c>
       <c r="D38" s="9">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="27" x14ac:dyDescent="0.25">
@@ -2308,28 +2474,28 @@
         <v>20108</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="C39" s="8">
-        <v>110</v>
+        <v>152</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>226</v>
       </c>
       <c r="D39" s="9">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -2337,28 +2503,28 @@
         <v>20109</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="C40" s="8">
-        <v>110</v>
+        <v>153</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>226</v>
       </c>
       <c r="D40" s="9">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -2366,28 +2532,28 @@
         <v>20110</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="C41" s="8">
-        <v>110</v>
+        <v>154</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>226</v>
       </c>
       <c r="D41" s="9">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -2395,57 +2561,57 @@
         <v>20111</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="C42" s="8">
-        <v>110</v>
+        <v>155</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>226</v>
       </c>
       <c r="D42" s="9">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="27" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
         <v>20112</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="C43" s="8">
-        <v>110</v>
+        <v>156</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>226</v>
       </c>
       <c r="D43" s="9">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -2453,28 +2619,28 @@
         <v>20113</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="C44" s="8">
-        <v>110</v>
+        <v>157</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>226</v>
       </c>
       <c r="D44" s="9">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -2482,28 +2648,28 @@
         <v>20114</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="C45" s="8">
-        <v>110</v>
+        <v>158</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>226</v>
       </c>
       <c r="D45" s="9">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -2511,28 +2677,28 @@
         <v>20115</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="C46" s="8">
-        <v>110</v>
+        <v>159</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>226</v>
       </c>
       <c r="D46" s="9">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="H46" s="8" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -2540,28 +2706,28 @@
         <v>20116</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="C47" s="8">
-        <v>110</v>
+        <v>160</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>226</v>
       </c>
       <c r="D47" s="9">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -2569,28 +2735,28 @@
         <v>20201</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="C48" s="8">
-        <v>110</v>
+        <v>161</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>227</v>
       </c>
       <c r="D48" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="H48" s="8" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -2600,11 +2766,11 @@
       <c r="B49" s="8">
         <v>0</v>
       </c>
-      <c r="C49" s="8">
-        <v>110</v>
+      <c r="C49" s="8" t="s">
+        <v>227</v>
       </c>
       <c r="D49" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E49" s="8">
         <v>0</v>
@@ -2629,11 +2795,11 @@
       <c r="B50" s="8">
         <v>0</v>
       </c>
-      <c r="C50" s="8">
-        <v>110</v>
+      <c r="C50" s="8" t="s">
+        <v>227</v>
       </c>
       <c r="D50" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E50" s="8">
         <v>0</v>
@@ -2658,8 +2824,8 @@
       <c r="B51" s="8">
         <v>0</v>
       </c>
-      <c r="C51" s="8">
-        <v>110</v>
+      <c r="C51" s="8" t="s">
+        <v>227</v>
       </c>
       <c r="D51" s="9">
         <v>4</v>
@@ -2687,11 +2853,11 @@
       <c r="B52" s="8">
         <v>0</v>
       </c>
-      <c r="C52" s="8">
-        <v>110</v>
+      <c r="C52" s="8" t="s">
+        <v>227</v>
       </c>
       <c r="D52" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E52" s="8">
         <v>0</v>
@@ -2716,11 +2882,11 @@
       <c r="B53" s="8">
         <v>0</v>
       </c>
-      <c r="C53" s="8">
-        <v>110</v>
+      <c r="C53" s="8" t="s">
+        <v>227</v>
       </c>
       <c r="D53" s="9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E53" s="8">
         <v>0</v>
@@ -2745,11 +2911,11 @@
       <c r="B54" s="8">
         <v>0</v>
       </c>
-      <c r="C54" s="8">
-        <v>110</v>
+      <c r="C54" s="8" t="s">
+        <v>228</v>
       </c>
       <c r="D54" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E54" s="8">
         <v>0</v>
@@ -2774,11 +2940,11 @@
       <c r="B55" s="8">
         <v>0</v>
       </c>
-      <c r="C55" s="8">
-        <v>110</v>
+      <c r="C55" s="8" t="s">
+        <v>228</v>
       </c>
       <c r="D55" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E55" s="8">
         <v>0</v>
@@ -2803,11 +2969,11 @@
       <c r="B56" s="8">
         <v>0</v>
       </c>
-      <c r="C56" s="8">
-        <v>110</v>
+      <c r="C56" s="8" t="s">
+        <v>228</v>
       </c>
       <c r="D56" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E56" s="8">
         <v>0</v>
@@ -2830,16 +2996,16 @@
         <v>30101</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="C57" s="8">
-        <v>110</v>
+        <v>162</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>229</v>
       </c>
       <c r="D57" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="F57" s="8">
         <v>0</v>
@@ -2859,16 +3025,16 @@
         <v>30102</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="C58" s="8">
-        <v>110</v>
+        <v>163</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>229</v>
       </c>
       <c r="D58" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="F58" s="8">
         <v>0</v>
@@ -2888,16 +3054,16 @@
         <v>30103</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="C59" s="8">
-        <v>110</v>
+        <v>164</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>229</v>
       </c>
       <c r="D59" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="F59" s="8">
         <v>0</v>
@@ -2917,16 +3083,16 @@
         <v>30104</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="C60" s="8">
-        <v>110</v>
+        <v>165</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>229</v>
       </c>
       <c r="D60" s="9">
         <v>4</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="F60" s="8">
         <v>0</v>
@@ -2946,16 +3112,16 @@
         <v>30105</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="C61" s="8">
-        <v>110</v>
+        <v>166</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>229</v>
       </c>
       <c r="D61" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F61" s="8">
         <v>0</v>
@@ -2977,11 +3143,11 @@
       <c r="B62" s="8">
         <v>0</v>
       </c>
-      <c r="C62" s="8">
-        <v>110</v>
+      <c r="C62" s="8" t="s">
+        <v>229</v>
       </c>
       <c r="D62" s="9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E62" s="8">
         <v>0</v>
@@ -3003,17 +3169,17 @@
       <c r="A63" s="8">
         <v>30201</v>
       </c>
-      <c r="B63" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="C63" s="8">
-        <v>110</v>
+      <c r="B63" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>230</v>
       </c>
       <c r="D63" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c r="F63" s="8">
         <v>0</v>
@@ -3032,17 +3198,17 @@
       <c r="A64" s="8">
         <v>30202</v>
       </c>
-      <c r="B64" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="C64" s="8">
-        <v>110</v>
+      <c r="B64" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>230</v>
       </c>
       <c r="D64" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="F64" s="8">
         <v>0</v>
@@ -3061,17 +3227,17 @@
       <c r="A65" s="8">
         <v>30203</v>
       </c>
-      <c r="B65" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="C65" s="8">
-        <v>110</v>
+      <c r="B65" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>230</v>
       </c>
       <c r="D65" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
       <c r="F65" s="8">
         <v>0</v>
@@ -3090,17 +3256,17 @@
       <c r="A66" s="8">
         <v>30204</v>
       </c>
-      <c r="B66" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="C66" s="8">
-        <v>110</v>
+      <c r="B66" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>230</v>
       </c>
       <c r="D66" s="9">
         <v>4</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="F66" s="8">
         <v>0</v>
@@ -3119,17 +3285,17 @@
       <c r="A67" s="8">
         <v>30205</v>
       </c>
-      <c r="B67" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="C67" s="8">
-        <v>110</v>
+      <c r="B67" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>230</v>
       </c>
       <c r="D67" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="F67" s="8">
         <v>0</v>
@@ -3146,19 +3312,19 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="8">
-        <v>30301</v>
-      </c>
-      <c r="B68" s="8">
-        <v>0</v>
-      </c>
-      <c r="C68" s="8">
-        <v>110</v>
+        <v>30206</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>230</v>
       </c>
       <c r="D68" s="9">
-        <v>4</v>
-      </c>
-      <c r="E68" s="8">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>207</v>
       </c>
       <c r="F68" s="8">
         <v>0</v>
@@ -3175,19 +3341,19 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="8">
-        <v>30302</v>
-      </c>
-      <c r="B69" s="8">
-        <v>0</v>
-      </c>
-      <c r="C69" s="8">
-        <v>110</v>
+        <v>30207</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>230</v>
       </c>
       <c r="D69" s="9">
-        <v>4</v>
-      </c>
-      <c r="E69" s="8">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>208</v>
       </c>
       <c r="F69" s="8">
         <v>0</v>
@@ -3204,19 +3370,19 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="8">
-        <v>30303</v>
-      </c>
-      <c r="B70" s="8">
-        <v>0</v>
-      </c>
-      <c r="C70" s="8">
-        <v>110</v>
+        <v>30208</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>230</v>
       </c>
       <c r="D70" s="9">
-        <v>4</v>
-      </c>
-      <c r="E70" s="8">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>209</v>
       </c>
       <c r="F70" s="8">
         <v>0</v>
@@ -3233,19 +3399,19 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="8">
-        <v>30304</v>
-      </c>
-      <c r="B71" s="8">
-        <v>0</v>
-      </c>
-      <c r="C71" s="8">
-        <v>110</v>
+        <v>30209</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>230</v>
       </c>
       <c r="D71" s="9">
-        <v>4</v>
-      </c>
-      <c r="E71" s="8">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>210</v>
       </c>
       <c r="F71" s="8">
         <v>0</v>
@@ -3262,19 +3428,19 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="8">
-        <v>30305</v>
-      </c>
-      <c r="B72" s="8">
-        <v>0</v>
-      </c>
-      <c r="C72" s="8">
-        <v>110</v>
+        <v>30210</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>230</v>
       </c>
       <c r="D72" s="9">
-        <v>4</v>
-      </c>
-      <c r="E72" s="8">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>211</v>
       </c>
       <c r="F72" s="8">
         <v>0</v>
@@ -3289,21 +3455,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" ht="165" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="8">
-        <v>30306</v>
-      </c>
-      <c r="B73" s="8">
-        <v>0</v>
-      </c>
-      <c r="C73" s="8">
-        <v>110</v>
+        <v>30301</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>231</v>
       </c>
       <c r="D73" s="9">
-        <v>4</v>
-      </c>
-      <c r="E73" s="8">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>212</v>
       </c>
       <c r="F73" s="8">
         <v>0</v>
@@ -3320,19 +3486,19 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="8">
-        <v>40101</v>
+        <v>30302</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="C74" s="8">
-        <v>110</v>
+        <v>169</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>231</v>
       </c>
       <c r="D74" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>184</v>
+        <v>213</v>
       </c>
       <c r="F74" s="8">
         <v>0</v>
@@ -3349,19 +3515,19 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="8">
-        <v>40102</v>
-      </c>
-      <c r="B75" s="8">
-        <v>0</v>
-      </c>
-      <c r="C75" s="8">
-        <v>110</v>
+        <v>30303</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>231</v>
       </c>
       <c r="D75" s="9">
-        <v>4</v>
-      </c>
-      <c r="E75" s="8">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>214</v>
       </c>
       <c r="F75" s="8">
         <v>0</v>
@@ -3378,19 +3544,19 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="8">
-        <v>40103</v>
-      </c>
-      <c r="B76" s="8">
-        <v>0</v>
-      </c>
-      <c r="C76" s="8">
-        <v>110</v>
+        <v>30304</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>231</v>
       </c>
       <c r="D76" s="9">
         <v>4</v>
       </c>
-      <c r="E76" s="8">
-        <v>0</v>
+      <c r="E76" s="8" t="s">
+        <v>215</v>
       </c>
       <c r="F76" s="8">
         <v>0</v>
@@ -3407,19 +3573,19 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="8">
-        <v>40104</v>
-      </c>
-      <c r="B77" s="8">
-        <v>0</v>
-      </c>
-      <c r="C77" s="8">
-        <v>110</v>
+        <v>30305</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>231</v>
       </c>
       <c r="D77" s="9">
-        <v>4</v>
-      </c>
-      <c r="E77" s="8">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>216</v>
       </c>
       <c r="F77" s="8">
         <v>0</v>
@@ -3436,59 +3602,320 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="8">
+        <v>30306</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="D78" s="9">
+        <v>6</v>
+      </c>
+      <c r="E78" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="F78" s="8">
+        <v>0</v>
+      </c>
+      <c r="G78" s="8">
+        <v>0</v>
+      </c>
+      <c r="H78" s="8">
+        <v>0</v>
+      </c>
+      <c r="I78" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="8">
+        <v>30307</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="D79" s="9">
+        <v>7</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="F79" s="8">
+        <v>0</v>
+      </c>
+      <c r="G79" s="8">
+        <v>0</v>
+      </c>
+      <c r="H79" s="8">
+        <v>0</v>
+      </c>
+      <c r="I79" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="8">
+        <v>30308</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="D80" s="9">
+        <v>8</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="F80" s="8">
+        <v>0</v>
+      </c>
+      <c r="G80" s="8">
+        <v>0</v>
+      </c>
+      <c r="H80" s="8">
+        <v>0</v>
+      </c>
+      <c r="I80" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="8">
+        <v>30309</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="D81" s="9">
+        <v>9</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="F81" s="8">
+        <v>0</v>
+      </c>
+      <c r="G81" s="8">
+        <v>0</v>
+      </c>
+      <c r="H81" s="8">
+        <v>0</v>
+      </c>
+      <c r="I81" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="8">
+        <v>30310</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="D82" s="9">
+        <v>10</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="F82" s="8">
+        <v>0</v>
+      </c>
+      <c r="G82" s="8">
+        <v>0</v>
+      </c>
+      <c r="H82" s="8">
+        <v>0</v>
+      </c>
+      <c r="I82" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" s="8">
+        <v>40101</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="D83" s="9">
+        <v>1</v>
+      </c>
+      <c r="E83" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="F83" s="8">
+        <v>0</v>
+      </c>
+      <c r="G83" s="8">
+        <v>0</v>
+      </c>
+      <c r="H83" s="8">
+        <v>0</v>
+      </c>
+      <c r="I83" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="8">
+        <v>40102</v>
+      </c>
+      <c r="B84" s="8">
+        <v>0</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="D84" s="9">
+        <v>2</v>
+      </c>
+      <c r="E84" s="8">
+        <v>0</v>
+      </c>
+      <c r="F84" s="8">
+        <v>0</v>
+      </c>
+      <c r="G84" s="8">
+        <v>0</v>
+      </c>
+      <c r="H84" s="8">
+        <v>0</v>
+      </c>
+      <c r="I84" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" s="8">
+        <v>40103</v>
+      </c>
+      <c r="B85" s="8">
+        <v>0</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="D85" s="9">
+        <v>3</v>
+      </c>
+      <c r="E85" s="8">
+        <v>0</v>
+      </c>
+      <c r="F85" s="8">
+        <v>0</v>
+      </c>
+      <c r="G85" s="8">
+        <v>0</v>
+      </c>
+      <c r="H85" s="8">
+        <v>0</v>
+      </c>
+      <c r="I85" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" s="8">
+        <v>40104</v>
+      </c>
+      <c r="B86" s="8">
+        <v>0</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="D86" s="9">
+        <v>4</v>
+      </c>
+      <c r="E86" s="8">
+        <v>0</v>
+      </c>
+      <c r="F86" s="8">
+        <v>0</v>
+      </c>
+      <c r="G86" s="8">
+        <v>0</v>
+      </c>
+      <c r="H86" s="8">
+        <v>0</v>
+      </c>
+      <c r="I86" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" s="8">
         <v>40105</v>
       </c>
-      <c r="B78" s="8">
-        <v>0</v>
-      </c>
-      <c r="C78" s="8">
-        <v>110</v>
-      </c>
-      <c r="D78" s="9">
-        <v>4</v>
-      </c>
-      <c r="E78" s="8">
-        <v>0</v>
-      </c>
-      <c r="F78" s="8">
-        <v>0</v>
-      </c>
-      <c r="G78" s="8">
-        <v>0</v>
-      </c>
-      <c r="H78" s="8">
-        <v>0</v>
-      </c>
-      <c r="I78" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="8">
+      <c r="B87" s="8">
+        <v>0</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="D87" s="9">
+        <v>5</v>
+      </c>
+      <c r="E87" s="8">
+        <v>0</v>
+      </c>
+      <c r="F87" s="8">
+        <v>0</v>
+      </c>
+      <c r="G87" s="8">
+        <v>0</v>
+      </c>
+      <c r="H87" s="8">
+        <v>0</v>
+      </c>
+      <c r="I87" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" s="8">
         <v>40106</v>
       </c>
-      <c r="B79" s="8">
-        <v>0</v>
-      </c>
-      <c r="C79" s="8">
-        <v>110</v>
-      </c>
-      <c r="D79" s="9">
-        <v>4</v>
-      </c>
-      <c r="E79" s="8">
-        <v>0</v>
-      </c>
-      <c r="F79" s="8">
-        <v>0</v>
-      </c>
-      <c r="G79" s="8">
-        <v>0</v>
-      </c>
-      <c r="H79" s="8">
-        <v>0</v>
-      </c>
-      <c r="I79" s="8">
+      <c r="B88" s="8">
+        <v>0</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="D88" s="9">
+        <v>6</v>
+      </c>
+      <c r="E88" s="8">
+        <v>0</v>
+      </c>
+      <c r="F88" s="8">
+        <v>0</v>
+      </c>
+      <c r="G88" s="8">
+        <v>0</v>
+      </c>
+      <c r="H88" s="8">
+        <v>0</v>
+      </c>
+      <c r="I88" s="8">
         <v>0</v>
       </c>
     </row>
@@ -3504,10 +3931,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J122"/>
+  <dimension ref="A1:J129"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B93" sqref="B93"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="E100" sqref="E100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16" defaultRowHeight="13.5" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -3516,7 +3943,8 @@
     <col min="2" max="2" width="11.375" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.75" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="9" width="15" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43" style="6" customWidth="1"/>
+    <col min="6" max="9" width="15" style="6" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.875" style="6" customWidth="1"/>
     <col min="11" max="16384" width="16" style="6"/>
   </cols>
@@ -5608,16 +6036,16 @@
     </row>
     <row r="82" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A82" s="8">
-        <f t="shared" ref="A82:A90" si="23">C82*100+D82</f>
+        <f t="shared" ref="A82:A92" si="23">C82*100+D82</f>
         <v>30201</v>
       </c>
       <c r="B82" s="8"/>
       <c r="C82" s="8">
-        <f t="shared" ref="C82:C90" si="24">C81</f>
+        <f t="shared" ref="C82:C92" si="24">C81</f>
         <v>302</v>
       </c>
       <c r="D82" s="9">
-        <f t="shared" ref="D82:D90" si="25">D81+1</f>
+        <f t="shared" ref="D82:D92" si="25">D81+1</f>
         <v>1</v>
       </c>
       <c r="E82" s="9" t="s">
@@ -5781,7 +6209,9 @@
         <f t="shared" si="25"/>
         <v>8</v>
       </c>
-      <c r="E89" s="9"/>
+      <c r="E89" s="9" t="s">
+        <v>175</v>
+      </c>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c r="H89" s="8"/>
@@ -5802,90 +6232,98 @@
         <f t="shared" si="25"/>
         <v>9</v>
       </c>
-      <c r="E90" s="8"/>
+      <c r="E90" s="8" t="s">
+        <v>176</v>
+      </c>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c r="H90" s="8"/>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B91" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C91" s="7">
-        <v>303</v>
-      </c>
-      <c r="D91" s="7">
-        <v>0</v>
-      </c>
-      <c r="E91" s="7"/>
-      <c r="F91" s="7"/>
-      <c r="G91" s="7"/>
-      <c r="H91" s="7"/>
-      <c r="I91" s="7"/>
-      <c r="J91" s="7"/>
+    <row r="91" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="8">
+        <f t="shared" si="23"/>
+        <v>30210</v>
+      </c>
+      <c r="B91" s="8"/>
+      <c r="C91" s="8">
+        <f t="shared" si="24"/>
+        <v>302</v>
+      </c>
+      <c r="D91" s="9">
+        <f t="shared" si="25"/>
+        <v>10</v>
+      </c>
+      <c r="E91" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c r="H91" s="8"/>
+      <c r="I91" s="8"/>
+      <c r="J91" s="8"/>
     </row>
     <row r="92" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A92" s="8">
-        <f t="shared" ref="A92:A109" si="26">C92*100+D92</f>
-        <v>30301</v>
+        <f t="shared" si="23"/>
+        <v>30211</v>
       </c>
       <c r="B92" s="8"/>
       <c r="C92" s="8">
-        <f>C91</f>
-        <v>303</v>
+        <f t="shared" si="24"/>
+        <v>302</v>
       </c>
       <c r="D92" s="9">
-        <f>D91+1</f>
-        <v>1</v>
-      </c>
-      <c r="E92" s="8"/>
+        <f t="shared" si="25"/>
+        <v>11</v>
+      </c>
+      <c r="E92" s="8" t="s">
+        <v>178</v>
+      </c>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c r="H92" s="8"/>
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
     </row>
-    <row r="93" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="8">
-        <f t="shared" si="26"/>
-        <v>30302</v>
-      </c>
-      <c r="B93" s="8"/>
-      <c r="C93" s="8">
-        <f t="shared" ref="C93:C97" si="27">C92</f>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C93" s="7">
         <v>303</v>
       </c>
-      <c r="D93" s="9">
-        <f t="shared" ref="D93:D97" si="28">D92+1</f>
-        <v>2</v>
-      </c>
-      <c r="E93" s="8"/>
-      <c r="F93" s="8"/>
-      <c r="G93" s="8"/>
-      <c r="H93" s="8"/>
-      <c r="I93" s="8"/>
-      <c r="J93" s="8"/>
+      <c r="D93" s="7">
+        <v>0</v>
+      </c>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="7"/>
+      <c r="H93" s="7"/>
+      <c r="I93" s="7"/>
+      <c r="J93" s="7"/>
     </row>
     <row r="94" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A94" s="8">
-        <f t="shared" si="26"/>
-        <v>30303</v>
+        <f t="shared" ref="A94:A116" si="26">C94*100+D94</f>
+        <v>30301</v>
       </c>
       <c r="B94" s="8"/>
       <c r="C94" s="8">
-        <f t="shared" si="27"/>
+        <f>C93</f>
         <v>303</v>
       </c>
       <c r="D94" s="9">
-        <f t="shared" si="28"/>
-        <v>3</v>
-      </c>
-      <c r="E94" s="8"/>
+        <f>D93+1</f>
+        <v>1</v>
+      </c>
+      <c r="E94" s="8" t="s">
+        <v>179</v>
+      </c>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c r="H94" s="8"/>
@@ -5895,18 +6333,20 @@
     <row r="95" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A95" s="8">
         <f t="shared" si="26"/>
-        <v>30304</v>
+        <v>30302</v>
       </c>
       <c r="B95" s="8"/>
       <c r="C95" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" ref="C95:C104" si="27">C94</f>
         <v>303</v>
       </c>
       <c r="D95" s="9">
-        <f t="shared" si="28"/>
-        <v>4</v>
-      </c>
-      <c r="E95" s="8"/>
+        <f t="shared" ref="D95:D104" si="28">D94+1</f>
+        <v>2</v>
+      </c>
+      <c r="E95" s="8" t="s">
+        <v>180</v>
+      </c>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c r="H95" s="8"/>
@@ -5916,7 +6356,7 @@
     <row r="96" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A96" s="8">
         <f t="shared" si="26"/>
-        <v>30305</v>
+        <v>30303</v>
       </c>
       <c r="B96" s="8"/>
       <c r="C96" s="8">
@@ -5925,9 +6365,11 @@
       </c>
       <c r="D96" s="9">
         <f t="shared" si="28"/>
-        <v>5</v>
-      </c>
-      <c r="E96" s="8"/>
+        <v>3</v>
+      </c>
+      <c r="E96" s="8" t="s">
+        <v>181</v>
+      </c>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c r="H96" s="8"/>
@@ -5937,7 +6379,7 @@
     <row r="97" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A97" s="8">
         <f t="shared" si="26"/>
-        <v>30306</v>
+        <v>30304</v>
       </c>
       <c r="B97" s="8"/>
       <c r="C97" s="8">
@@ -5946,51 +6388,56 @@
       </c>
       <c r="D97" s="9">
         <f t="shared" si="28"/>
-        <v>6</v>
-      </c>
-      <c r="E97" s="8"/>
+        <v>4</v>
+      </c>
+      <c r="E97" s="8" t="s">
+        <v>182</v>
+      </c>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c r="H97" s="8"/>
       <c r="I97" s="8"/>
       <c r="J97" s="8"/>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B98" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C98" s="7">
-        <v>401</v>
-      </c>
-      <c r="D98" s="7">
-        <v>0</v>
-      </c>
-      <c r="E98" s="7"/>
-      <c r="F98" s="7"/>
-      <c r="G98" s="7"/>
-      <c r="H98" s="7"/>
-      <c r="I98" s="7"/>
-      <c r="J98" s="7"/>
+    <row r="98" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="8">
+        <f t="shared" si="26"/>
+        <v>30305</v>
+      </c>
+      <c r="B98" s="8"/>
+      <c r="C98" s="8">
+        <f t="shared" si="27"/>
+        <v>303</v>
+      </c>
+      <c r="D98" s="9">
+        <f t="shared" si="28"/>
+        <v>5</v>
+      </c>
+      <c r="E98" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c r="H98" s="8"/>
+      <c r="I98" s="8"/>
+      <c r="J98" s="8"/>
     </row>
     <row r="99" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A99" s="8">
-        <f t="shared" ref="A99:A104" si="29">C99*100+D99</f>
-        <v>40101</v>
+        <f t="shared" si="26"/>
+        <v>30306</v>
       </c>
       <c r="B99" s="8"/>
       <c r="C99" s="8">
-        <f t="shared" ref="C99:C104" si="30">C98</f>
-        <v>401</v>
+        <f t="shared" si="27"/>
+        <v>303</v>
       </c>
       <c r="D99" s="9">
-        <f t="shared" ref="D99:D104" si="31">D98+1</f>
-        <v>1</v>
+        <f t="shared" si="28"/>
+        <v>6</v>
       </c>
       <c r="E99" s="8" t="s">
-        <v>89</v>
+        <v>184</v>
       </c>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
@@ -6000,19 +6447,21 @@
     </row>
     <row r="100" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A100" s="8">
-        <f t="shared" si="29"/>
-        <v>40102</v>
+        <f t="shared" si="26"/>
+        <v>30307</v>
       </c>
       <c r="B100" s="8"/>
       <c r="C100" s="8">
-        <f t="shared" si="30"/>
-        <v>401</v>
+        <f t="shared" si="27"/>
+        <v>303</v>
       </c>
       <c r="D100" s="9">
-        <f t="shared" si="31"/>
-        <v>2</v>
-      </c>
-      <c r="E100" s="8"/>
+        <f t="shared" si="28"/>
+        <v>7</v>
+      </c>
+      <c r="E100" s="8" t="s">
+        <v>185</v>
+      </c>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c r="H100" s="8"/>
@@ -6021,19 +6470,21 @@
     </row>
     <row r="101" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A101" s="8">
-        <f t="shared" si="29"/>
-        <v>40103</v>
+        <f t="shared" si="26"/>
+        <v>30308</v>
       </c>
       <c r="B101" s="8"/>
       <c r="C101" s="8">
-        <f t="shared" si="30"/>
-        <v>401</v>
+        <f t="shared" si="27"/>
+        <v>303</v>
       </c>
       <c r="D101" s="9">
-        <f t="shared" si="31"/>
-        <v>3</v>
-      </c>
-      <c r="E101" s="8"/>
+        <f t="shared" si="28"/>
+        <v>8</v>
+      </c>
+      <c r="E101" s="8" t="s">
+        <v>186</v>
+      </c>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c r="H101" s="8"/>
@@ -6042,19 +6493,21 @@
     </row>
     <row r="102" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A102" s="8">
-        <f t="shared" si="29"/>
-        <v>40104</v>
+        <f t="shared" si="26"/>
+        <v>30309</v>
       </c>
       <c r="B102" s="8"/>
       <c r="C102" s="8">
-        <f t="shared" si="30"/>
-        <v>401</v>
+        <f t="shared" si="27"/>
+        <v>303</v>
       </c>
       <c r="D102" s="9">
-        <f t="shared" si="31"/>
-        <v>4</v>
-      </c>
-      <c r="E102" s="8"/>
+        <f t="shared" si="28"/>
+        <v>9</v>
+      </c>
+      <c r="E102" s="8" t="s">
+        <v>187</v>
+      </c>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c r="H102" s="8"/>
@@ -6063,19 +6516,21 @@
     </row>
     <row r="103" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A103" s="8">
-        <f t="shared" si="29"/>
-        <v>40105</v>
+        <f t="shared" si="26"/>
+        <v>30310</v>
       </c>
       <c r="B103" s="8"/>
       <c r="C103" s="8">
-        <f t="shared" si="30"/>
-        <v>401</v>
+        <f t="shared" si="27"/>
+        <v>303</v>
       </c>
       <c r="D103" s="9">
-        <f t="shared" si="31"/>
-        <v>5</v>
-      </c>
-      <c r="E103" s="8"/>
+        <f t="shared" si="28"/>
+        <v>10</v>
+      </c>
+      <c r="E103" s="8" t="s">
+        <v>188</v>
+      </c>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c r="H103" s="8"/>
@@ -6084,19 +6539,21 @@
     </row>
     <row r="104" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A104" s="8">
-        <f t="shared" si="29"/>
-        <v>40106</v>
+        <f t="shared" si="26"/>
+        <v>30311</v>
       </c>
       <c r="B104" s="8"/>
       <c r="C104" s="8">
-        <f t="shared" si="30"/>
-        <v>401</v>
+        <f t="shared" si="27"/>
+        <v>303</v>
       </c>
       <c r="D104" s="9">
-        <f t="shared" si="31"/>
-        <v>6</v>
-      </c>
-      <c r="E104" s="8"/>
+        <f t="shared" si="28"/>
+        <v>11</v>
+      </c>
+      <c r="E104" s="8" t="s">
+        <v>189</v>
+      </c>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c r="H104" s="8"/>
@@ -6108,10 +6565,10 @@
         <v>1</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="C105" s="7">
-        <v>501</v>
+        <v>401</v>
       </c>
       <c r="D105" s="7">
         <v>0</v>
@@ -6125,19 +6582,21 @@
     </row>
     <row r="106" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A106" s="8">
-        <f t="shared" si="26"/>
-        <v>50101</v>
+        <f t="shared" ref="A106:A111" si="29">C106*100+D106</f>
+        <v>40101</v>
       </c>
       <c r="B106" s="8"/>
       <c r="C106" s="8">
-        <f t="shared" ref="C106:C109" si="32">C105</f>
-        <v>501</v>
+        <f t="shared" ref="C106:C111" si="30">C105</f>
+        <v>401</v>
       </c>
       <c r="D106" s="9">
-        <f t="shared" ref="D106:D109" si="33">D105+1</f>
+        <f t="shared" ref="D106:D111" si="31">D105+1</f>
         <v>1</v>
       </c>
-      <c r="E106" s="8"/>
+      <c r="E106" s="8" t="s">
+        <v>89</v>
+      </c>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c r="H106" s="8"/>
@@ -6146,16 +6605,16 @@
     </row>
     <row r="107" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A107" s="8">
-        <f t="shared" si="26"/>
-        <v>50102</v>
+        <f t="shared" si="29"/>
+        <v>40102</v>
       </c>
       <c r="B107" s="8"/>
       <c r="C107" s="8">
-        <f t="shared" si="32"/>
-        <v>501</v>
+        <f t="shared" si="30"/>
+        <v>401</v>
       </c>
       <c r="D107" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>2</v>
       </c>
       <c r="E107" s="8"/>
@@ -6167,16 +6626,16 @@
     </row>
     <row r="108" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A108" s="8">
-        <f t="shared" si="26"/>
-        <v>50103</v>
+        <f t="shared" si="29"/>
+        <v>40103</v>
       </c>
       <c r="B108" s="8"/>
       <c r="C108" s="8">
-        <f t="shared" si="32"/>
-        <v>501</v>
+        <f t="shared" si="30"/>
+        <v>401</v>
       </c>
       <c r="D108" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>3</v>
       </c>
       <c r="E108" s="8"/>
@@ -6188,16 +6647,16 @@
     </row>
     <row r="109" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A109" s="8">
-        <f t="shared" si="26"/>
-        <v>50104</v>
+        <f t="shared" si="29"/>
+        <v>40104</v>
       </c>
       <c r="B109" s="8"/>
       <c r="C109" s="8">
-        <f t="shared" si="32"/>
-        <v>501</v>
+        <f t="shared" si="30"/>
+        <v>401</v>
       </c>
       <c r="D109" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>4</v>
       </c>
       <c r="E109" s="8"/>
@@ -6208,10 +6667,19 @@
       <c r="J109" s="8"/>
     </row>
     <row r="110" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="8"/>
+      <c r="A110" s="8">
+        <f t="shared" si="29"/>
+        <v>40105</v>
+      </c>
       <c r="B110" s="8"/>
-      <c r="C110" s="8"/>
-      <c r="D110" s="9"/>
+      <c r="C110" s="8">
+        <f t="shared" si="30"/>
+        <v>401</v>
+      </c>
+      <c r="D110" s="9">
+        <f t="shared" si="31"/>
+        <v>5</v>
+      </c>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
@@ -6220,10 +6688,19 @@
       <c r="J110" s="8"/>
     </row>
     <row r="111" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="8"/>
+      <c r="A111" s="8">
+        <f t="shared" si="29"/>
+        <v>40106</v>
+      </c>
       <c r="B111" s="8"/>
-      <c r="C111" s="8"/>
-      <c r="D111" s="9"/>
+      <c r="C111" s="8">
+        <f t="shared" si="30"/>
+        <v>401</v>
+      </c>
+      <c r="D111" s="9">
+        <f t="shared" si="31"/>
+        <v>6</v>
+      </c>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
@@ -6231,23 +6708,40 @@
       <c r="I111" s="8"/>
       <c r="J111" s="8"/>
     </row>
-    <row r="112" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="8"/>
-      <c r="B112" s="8"/>
-      <c r="C112" s="8"/>
-      <c r="D112" s="9"/>
-      <c r="E112" s="8"/>
-      <c r="F112" s="8"/>
-      <c r="G112" s="8"/>
-      <c r="H112" s="8"/>
-      <c r="I112" s="8"/>
-      <c r="J112" s="8"/>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C112" s="7">
+        <v>501</v>
+      </c>
+      <c r="D112" s="7">
+        <v>0</v>
+      </c>
+      <c r="E112" s="7"/>
+      <c r="F112" s="7"/>
+      <c r="G112" s="7"/>
+      <c r="H112" s="7"/>
+      <c r="I112" s="7"/>
+      <c r="J112" s="7"/>
     </row>
     <row r="113" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="8"/>
+      <c r="A113" s="8">
+        <f t="shared" si="26"/>
+        <v>50101</v>
+      </c>
       <c r="B113" s="8"/>
-      <c r="C113" s="8"/>
-      <c r="D113" s="9"/>
+      <c r="C113" s="8">
+        <f t="shared" ref="C113:C116" si="32">C112</f>
+        <v>501</v>
+      </c>
+      <c r="D113" s="9">
+        <f t="shared" ref="D113:D116" si="33">D112+1</f>
+        <v>1</v>
+      </c>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
@@ -6256,10 +6750,19 @@
       <c r="J113" s="8"/>
     </row>
     <row r="114" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="8"/>
+      <c r="A114" s="8">
+        <f t="shared" si="26"/>
+        <v>50102</v>
+      </c>
       <c r="B114" s="8"/>
-      <c r="C114" s="8"/>
-      <c r="D114" s="9"/>
+      <c r="C114" s="8">
+        <f t="shared" si="32"/>
+        <v>501</v>
+      </c>
+      <c r="D114" s="9">
+        <f t="shared" si="33"/>
+        <v>2</v>
+      </c>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
@@ -6268,10 +6771,19 @@
       <c r="J114" s="8"/>
     </row>
     <row r="115" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="8"/>
+      <c r="A115" s="8">
+        <f t="shared" si="26"/>
+        <v>50103</v>
+      </c>
       <c r="B115" s="8"/>
-      <c r="C115" s="8"/>
-      <c r="D115" s="9"/>
+      <c r="C115" s="8">
+        <f t="shared" si="32"/>
+        <v>501</v>
+      </c>
+      <c r="D115" s="9">
+        <f t="shared" si="33"/>
+        <v>3</v>
+      </c>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
@@ -6280,10 +6792,19 @@
       <c r="J115" s="8"/>
     </row>
     <row r="116" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="8"/>
+      <c r="A116" s="8">
+        <f t="shared" si="26"/>
+        <v>50104</v>
+      </c>
       <c r="B116" s="8"/>
-      <c r="C116" s="8"/>
-      <c r="D116" s="9"/>
+      <c r="C116" s="8">
+        <f t="shared" si="32"/>
+        <v>501</v>
+      </c>
+      <c r="D116" s="9">
+        <f t="shared" si="33"/>
+        <v>4</v>
+      </c>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
@@ -6303,40 +6824,23 @@
       <c r="I117" s="8"/>
       <c r="J117" s="8"/>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B118" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C118" s="7">
-        <v>601</v>
-      </c>
-      <c r="D118" s="7">
-        <v>0</v>
-      </c>
-      <c r="E118" s="7"/>
-      <c r="F118" s="7"/>
-      <c r="G118" s="7"/>
-      <c r="H118" s="7"/>
-      <c r="I118" s="7"/>
-      <c r="J118" s="7"/>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="8">
-        <f t="shared" ref="A119:A122" si="34">C119*100+D119</f>
-        <v>60101</v>
-      </c>
+    <row r="118" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="8"/>
+      <c r="B118" s="8"/>
+      <c r="C118" s="8"/>
+      <c r="D118" s="9"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c r="H118" s="8"/>
+      <c r="I118" s="8"/>
+      <c r="J118" s="8"/>
+    </row>
+    <row r="119" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="8"/>
       <c r="B119" s="8"/>
-      <c r="C119" s="8">
-        <f t="shared" ref="C119:C122" si="35">C118</f>
-        <v>601</v>
-      </c>
-      <c r="D119" s="9">
-        <f>D118+1</f>
-        <v>1</v>
-      </c>
+      <c r="C119" s="8"/>
+      <c r="D119" s="9"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
@@ -6344,20 +6848,11 @@
       <c r="I119" s="8"/>
       <c r="J119" s="8"/>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="8">
-        <f t="shared" si="34"/>
-        <v>60102</v>
-      </c>
+    <row r="120" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="8"/>
       <c r="B120" s="8"/>
-      <c r="C120" s="8">
-        <f t="shared" si="35"/>
-        <v>601</v>
-      </c>
-      <c r="D120" s="9">
-        <f t="shared" ref="D120:D122" si="36">D119+1</f>
-        <v>2</v>
-      </c>
+      <c r="C120" s="8"/>
+      <c r="D120" s="9"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
@@ -6365,20 +6860,11 @@
       <c r="I120" s="8"/>
       <c r="J120" s="8"/>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="8">
-        <f t="shared" si="34"/>
-        <v>60103</v>
-      </c>
+    <row r="121" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="8"/>
       <c r="B121" s="8"/>
-      <c r="C121" s="8">
-        <f t="shared" si="35"/>
-        <v>601</v>
-      </c>
-      <c r="D121" s="9">
-        <f t="shared" si="36"/>
-        <v>3</v>
-      </c>
+      <c r="C121" s="8"/>
+      <c r="D121" s="9"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
@@ -6386,26 +6872,145 @@
       <c r="I121" s="8"/>
       <c r="J121" s="8"/>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="8">
-        <f t="shared" si="34"/>
-        <v>60104</v>
-      </c>
+    <row r="122" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="8"/>
       <c r="B122" s="8"/>
-      <c r="C122" s="8">
-        <f t="shared" si="35"/>
-        <v>601</v>
-      </c>
-      <c r="D122" s="9">
-        <f t="shared" si="36"/>
-        <v>4</v>
-      </c>
+      <c r="C122" s="8"/>
+      <c r="D122" s="9"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c r="H122" s="8"/>
       <c r="I122" s="8"/>
       <c r="J122" s="8"/>
+    </row>
+    <row r="123" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="8"/>
+      <c r="B123" s="8"/>
+      <c r="C123" s="8"/>
+      <c r="D123" s="9"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c r="H123" s="8"/>
+      <c r="I123" s="8"/>
+      <c r="J123" s="8"/>
+    </row>
+    <row r="124" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="8"/>
+      <c r="B124" s="8"/>
+      <c r="C124" s="8"/>
+      <c r="D124" s="9"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c r="H124" s="8"/>
+      <c r="I124" s="8"/>
+      <c r="J124" s="8"/>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C125" s="7">
+        <v>601</v>
+      </c>
+      <c r="D125" s="7">
+        <v>0</v>
+      </c>
+      <c r="E125" s="7"/>
+      <c r="F125" s="7"/>
+      <c r="G125" s="7"/>
+      <c r="H125" s="7"/>
+      <c r="I125" s="7"/>
+      <c r="J125" s="7"/>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A126" s="8">
+        <f t="shared" ref="A126:A129" si="34">C126*100+D126</f>
+        <v>60101</v>
+      </c>
+      <c r="B126" s="8"/>
+      <c r="C126" s="8">
+        <f t="shared" ref="C126:C129" si="35">C125</f>
+        <v>601</v>
+      </c>
+      <c r="D126" s="9">
+        <f>D125+1</f>
+        <v>1</v>
+      </c>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c r="H126" s="8"/>
+      <c r="I126" s="8"/>
+      <c r="J126" s="8"/>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A127" s="8">
+        <f t="shared" si="34"/>
+        <v>60102</v>
+      </c>
+      <c r="B127" s="8"/>
+      <c r="C127" s="8">
+        <f t="shared" si="35"/>
+        <v>601</v>
+      </c>
+      <c r="D127" s="9">
+        <f t="shared" ref="D127:D129" si="36">D126+1</f>
+        <v>2</v>
+      </c>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c r="H127" s="8"/>
+      <c r="I127" s="8"/>
+      <c r="J127" s="8"/>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A128" s="8">
+        <f t="shared" si="34"/>
+        <v>60103</v>
+      </c>
+      <c r="B128" s="8"/>
+      <c r="C128" s="8">
+        <f t="shared" si="35"/>
+        <v>601</v>
+      </c>
+      <c r="D128" s="9">
+        <f t="shared" si="36"/>
+        <v>3</v>
+      </c>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c r="H128" s="8"/>
+      <c r="I128" s="8"/>
+      <c r="J128" s="8"/>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A129" s="8">
+        <f t="shared" si="34"/>
+        <v>60104</v>
+      </c>
+      <c r="B129" s="8"/>
+      <c r="C129" s="8">
+        <f t="shared" si="35"/>
+        <v>601</v>
+      </c>
+      <c r="D129" s="9">
+        <f t="shared" si="36"/>
+        <v>4</v>
+      </c>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c r="H129" s="8"/>
+      <c r="I129" s="8"/>
+      <c r="J129" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
